--- a/bin/new压力温度.xlsx
+++ b/bin/new压力温度.xlsx
@@ -100,7 +100,7 @@
     <t>P6C1</t>
   </si>
   <si>
-    <t>2016/08/12</t>
+    <t>2016/08/19</t>
   </si>
   <si>
     <t>P6L1</t>
@@ -875,13 +875,13 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" t="n">
-        <v>6773</v>
+        <v>10713</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C2" t="n">
-        <v>6773</v>
+        <v>10713</v>
       </c>
       <c r="D2" t="s">
         <v>27</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" t="n">
-        <v>6774</v>
+        <v>10714</v>
       </c>
       <c r="B3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>6774</v>
+        <v>10714</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -945,13 +945,13 @@
     </row>
     <row r="4" spans="1:27">
       <c r="A4" t="n">
-        <v>6775</v>
+        <v>10715</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>6775</v>
+        <v>10715</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -980,13 +980,13 @@
     </row>
     <row r="5" spans="1:27">
       <c r="A5" t="n">
-        <v>6776</v>
+        <v>10716</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>6776</v>
+        <v>10716</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="6" spans="1:27">
       <c r="A6" t="n">
-        <v>6777</v>
+        <v>10717</v>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>6777</v>
+        <v>10717</v>
       </c>
       <c r="D6" t="s">
         <v>30</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="n">
-        <v>6778</v>
+        <v>10718</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C7" t="n">
-        <v>6778</v>
+        <v>10718</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -1085,13 +1085,13 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="n">
-        <v>6779</v>
+        <v>10719</v>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>6779</v>
+        <v>10719</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1120,13 +1120,13 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" t="n">
-        <v>6780</v>
+        <v>10720</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
-        <v>6780</v>
+        <v>10720</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -1155,13 +1155,13 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" t="n">
-        <v>6781</v>
+        <v>10721</v>
       </c>
       <c r="B10" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>6781</v>
+        <v>10721</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
@@ -1190,13 +1190,13 @@
     </row>
     <row r="11" spans="1:27">
       <c r="A11" t="n">
-        <v>6782</v>
+        <v>10722</v>
       </c>
       <c r="B11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>6782</v>
+        <v>10722</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -1225,13 +1225,13 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" t="n">
-        <v>6783</v>
+        <v>10723</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>6783</v>
+        <v>10723</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1260,13 +1260,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" t="n">
-        <v>6784</v>
+        <v>10724</v>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>6784</v>
+        <v>10724</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1295,13 +1295,13 @@
     </row>
     <row r="14" spans="1:27">
       <c r="A14" t="n">
-        <v>6785</v>
+        <v>10725</v>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
-        <v>6785</v>
+        <v>10725</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1330,13 +1330,13 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" t="n">
-        <v>6786</v>
+        <v>10726</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C15" t="n">
-        <v>6786</v>
+        <v>10726</v>
       </c>
       <c r="D15" t="s">
         <v>30</v>
@@ -1365,13 +1365,13 @@
     </row>
     <row r="16" spans="1:27">
       <c r="A16" t="n">
-        <v>6787</v>
+        <v>10727</v>
       </c>
       <c r="B16" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>6787</v>
+        <v>10727</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -1400,13 +1400,13 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" t="n">
-        <v>6788</v>
+        <v>10728</v>
       </c>
       <c r="B17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C17" t="n">
-        <v>6788</v>
+        <v>10728</v>
       </c>
       <c r="D17" t="s">
         <v>30</v>
@@ -1435,13 +1435,13 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" t="n">
-        <v>6789</v>
+        <v>10729</v>
       </c>
       <c r="B18" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>6789</v>
+        <v>10729</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -1470,13 +1470,13 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" t="n">
-        <v>6790</v>
+        <v>10730</v>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>6790</v>
+        <v>10730</v>
       </c>
       <c r="D19" t="s">
         <v>30</v>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="20" spans="1:27">
       <c r="A20" t="n">
-        <v>6791</v>
+        <v>10731</v>
       </c>
       <c r="B20" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>6791</v>
+        <v>10731</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1540,13 +1540,13 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" t="n">
-        <v>6792</v>
+        <v>10732</v>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C21" t="n">
-        <v>6792</v>
+        <v>10732</v>
       </c>
       <c r="D21" t="s">
         <v>30</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="22" spans="1:27">
       <c r="A22" t="n">
-        <v>6793</v>
+        <v>10733</v>
       </c>
       <c r="B22" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C22" t="n">
-        <v>6793</v>
+        <v>10733</v>
       </c>
       <c r="D22" t="s">
         <v>30</v>
@@ -1610,13 +1610,13 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" t="n">
-        <v>6794</v>
+        <v>10734</v>
       </c>
       <c r="B23" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C23" t="n">
-        <v>6794</v>
+        <v>10734</v>
       </c>
       <c r="D23" t="s">
         <v>30</v>
@@ -1645,13 +1645,13 @@
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="n">
-        <v>6795</v>
+        <v>10735</v>
       </c>
       <c r="B24" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6795</v>
+        <v>10735</v>
       </c>
       <c r="D24" t="s">
         <v>31</v>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="n">
-        <v>6796</v>
+        <v>10736</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C25" t="n">
-        <v>6796</v>
+        <v>10736</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1715,13 +1715,13 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="n">
-        <v>6797</v>
+        <v>10737</v>
       </c>
       <c r="B26" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C26" t="n">
-        <v>6797</v>
+        <v>10737</v>
       </c>
       <c r="D26" t="s">
         <v>32</v>
@@ -1750,13 +1750,13 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="n">
-        <v>6798</v>
+        <v>10738</v>
       </c>
       <c r="B27" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C27" t="n">
-        <v>6798</v>
+        <v>10738</v>
       </c>
       <c r="D27" t="s">
         <v>32</v>
@@ -1785,13 +1785,13 @@
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="n">
-        <v>6799</v>
+        <v>10739</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
-        <v>6799</v>
+        <v>10739</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -1820,13 +1820,13 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="n">
-        <v>6800</v>
+        <v>10740</v>
       </c>
       <c r="B29" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C29" t="n">
-        <v>6800</v>
+        <v>10740</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
@@ -1855,13 +1855,13 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="n">
-        <v>6801</v>
+        <v>10741</v>
       </c>
       <c r="B30" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>6801</v>
+        <v>10741</v>
       </c>
       <c r="D30" t="s">
         <v>34</v>
@@ -1890,13 +1890,13 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="n">
-        <v>6802</v>
+        <v>10742</v>
       </c>
       <c r="B31" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C31" t="n">
-        <v>6802</v>
+        <v>10742</v>
       </c>
       <c r="D31" t="s">
         <v>34</v>
@@ -1925,13 +1925,13 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="n">
-        <v>6803</v>
+        <v>10743</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C32" t="n">
-        <v>6803</v>
+        <v>10743</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" t="n">
-        <v>6804</v>
+        <v>10744</v>
       </c>
       <c r="B33" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C33" t="n">
-        <v>6804</v>
+        <v>10744</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="34" spans="1:27">
       <c r="A34" t="n">
-        <v>6805</v>
+        <v>10745</v>
       </c>
       <c r="B34" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C34" t="n">
-        <v>6805</v>
+        <v>10745</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
@@ -2030,13 +2030,13 @@
     </row>
     <row r="35" spans="1:27">
       <c r="A35" t="n">
-        <v>6806</v>
+        <v>10746</v>
       </c>
       <c r="B35" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C35" t="n">
-        <v>6806</v>
+        <v>10746</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" t="n">
-        <v>6807</v>
+        <v>10747</v>
       </c>
       <c r="B36" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>6807</v>
+        <v>10747</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -2100,13 +2100,13 @@
     </row>
     <row r="37" spans="1:27">
       <c r="A37" t="n">
-        <v>6808</v>
+        <v>10748</v>
       </c>
       <c r="B37" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>6808</v>
+        <v>10748</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" t="n">
-        <v>6809</v>
+        <v>10749</v>
       </c>
       <c r="B38" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>6809</v>
+        <v>10749</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -2170,13 +2170,13 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" t="n">
-        <v>6810</v>
+        <v>10750</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C39" t="n">
-        <v>6810</v>
+        <v>10750</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -2205,13 +2205,13 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" t="n">
-        <v>6811</v>
+        <v>10751</v>
       </c>
       <c r="B40" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C40" t="n">
-        <v>6811</v>
+        <v>10751</v>
       </c>
       <c r="D40" t="s">
         <v>37</v>
@@ -2240,13 +2240,13 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" t="n">
-        <v>6812</v>
+        <v>10752</v>
       </c>
       <c r="B41" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C41" t="n">
-        <v>6812</v>
+        <v>10752</v>
       </c>
       <c r="D41" t="s">
         <v>37</v>
@@ -2275,13 +2275,13 @@
     </row>
     <row r="42" spans="1:27">
       <c r="A42" t="n">
-        <v>6813</v>
+        <v>10753</v>
       </c>
       <c r="B42" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C42" t="n">
-        <v>6813</v>
+        <v>10753</v>
       </c>
       <c r="D42" t="s">
         <v>38</v>
@@ -2310,13 +2310,13 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" t="n">
-        <v>6814</v>
+        <v>10754</v>
       </c>
       <c r="B43" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
-        <v>6814</v>
+        <v>10754</v>
       </c>
       <c r="D43" t="s">
         <v>38</v>
@@ -2345,13 +2345,13 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" t="n">
-        <v>6815</v>
+        <v>10755</v>
       </c>
       <c r="B44" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C44" t="n">
-        <v>6815</v>
+        <v>10755</v>
       </c>
       <c r="D44" t="s">
         <v>38</v>
@@ -2380,13 +2380,13 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" t="n">
-        <v>6816</v>
+        <v>10756</v>
       </c>
       <c r="B45" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
-        <v>6816</v>
+        <v>10756</v>
       </c>
       <c r="D45" t="s">
         <v>39</v>
@@ -2415,13 +2415,13 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" t="n">
-        <v>6817</v>
+        <v>10757</v>
       </c>
       <c r="B46" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C46" t="n">
-        <v>6817</v>
+        <v>10757</v>
       </c>
       <c r="D46" t="s">
         <v>39</v>
@@ -2450,13 +2450,13 @@
     </row>
     <row r="47" spans="1:27">
       <c r="A47" t="n">
-        <v>6818</v>
+        <v>10758</v>
       </c>
       <c r="B47" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C47" t="n">
-        <v>6818</v>
+        <v>10758</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -2485,13 +2485,13 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" t="n">
-        <v>6819</v>
+        <v>10759</v>
       </c>
       <c r="B48" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C48" t="n">
-        <v>6819</v>
+        <v>10759</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -2520,13 +2520,13 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" t="n">
-        <v>6820</v>
+        <v>10760</v>
       </c>
       <c r="B49" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
-        <v>6820</v>
+        <v>10760</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="50" spans="1:27">
       <c r="A50" t="n">
-        <v>6821</v>
+        <v>10761</v>
       </c>
       <c r="B50" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C50" t="n">
-        <v>6821</v>
+        <v>10761</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -2590,13 +2590,13 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" t="n">
-        <v>6822</v>
+        <v>10762</v>
       </c>
       <c r="B51" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>6822</v>
+        <v>10762</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="52" spans="1:27">
       <c r="A52" t="n">
-        <v>6823</v>
+        <v>10763</v>
       </c>
       <c r="B52" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C52" t="n">
-        <v>6823</v>
+        <v>10763</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="53" spans="1:27">
       <c r="A53" t="n">
-        <v>6824</v>
+        <v>10764</v>
       </c>
       <c r="B53" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C53" t="n">
-        <v>6824</v>
+        <v>10764</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -2695,13 +2695,13 @@
     </row>
     <row r="54" spans="1:27">
       <c r="A54" t="n">
-        <v>6825</v>
+        <v>10765</v>
       </c>
       <c r="B54" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C54" t="n">
-        <v>6825</v>
+        <v>10765</v>
       </c>
       <c r="D54" t="s">
         <v>41</v>
@@ -2730,13 +2730,13 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" t="n">
-        <v>6826</v>
+        <v>10766</v>
       </c>
       <c r="B55" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C55" t="n">
-        <v>6826</v>
+        <v>10766</v>
       </c>
       <c r="D55" t="s">
         <v>41</v>
@@ -2765,13 +2765,13 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" t="n">
-        <v>6827</v>
+        <v>10767</v>
       </c>
       <c r="B56" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C56" t="n">
-        <v>6827</v>
+        <v>10767</v>
       </c>
       <c r="D56" t="s">
         <v>41</v>
@@ -2800,13 +2800,13 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" t="n">
-        <v>6828</v>
+        <v>10768</v>
       </c>
       <c r="B57" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>6828</v>
+        <v>10768</v>
       </c>
       <c r="D57" t="s">
         <v>42</v>
@@ -2835,13 +2835,13 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="n">
-        <v>6829</v>
+        <v>10769</v>
       </c>
       <c r="B58" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>6829</v>
+        <v>10769</v>
       </c>
       <c r="D58" t="s">
         <v>42</v>
@@ -2870,13 +2870,13 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" t="n">
-        <v>6830</v>
+        <v>10770</v>
       </c>
       <c r="B59" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C59" t="n">
-        <v>6830</v>
+        <v>10770</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -2905,13 +2905,13 @@
     </row>
     <row r="60" spans="1:27">
       <c r="A60" t="n">
-        <v>6831</v>
+        <v>10771</v>
       </c>
       <c r="B60" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C60" t="n">
-        <v>6831</v>
+        <v>10771</v>
       </c>
       <c r="D60" t="s">
         <v>43</v>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="n">
-        <v>6832</v>
+        <v>10772</v>
       </c>
       <c r="B61" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C61" t="n">
-        <v>6832</v>
+        <v>10772</v>
       </c>
       <c r="D61" t="s">
         <v>43</v>
@@ -2975,13 +2975,13 @@
     </row>
     <row r="62" spans="1:27">
       <c r="A62" t="n">
-        <v>6833</v>
+        <v>10773</v>
       </c>
       <c r="B62" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
-        <v>6833</v>
+        <v>10773</v>
       </c>
       <c r="D62" t="s">
         <v>44</v>
@@ -3010,13 +3010,13 @@
     </row>
     <row r="63" spans="1:27">
       <c r="A63" t="n">
-        <v>6834</v>
+        <v>10774</v>
       </c>
       <c r="B63" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
-        <v>6834</v>
+        <v>10774</v>
       </c>
       <c r="D63" t="s">
         <v>44</v>
@@ -3045,13 +3045,13 @@
     </row>
     <row r="64" spans="1:27">
       <c r="A64" t="n">
-        <v>6835</v>
+        <v>10775</v>
       </c>
       <c r="B64" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C64" t="n">
-        <v>6835</v>
+        <v>10775</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3080,13 +3080,13 @@
     </row>
     <row r="65" spans="1:27">
       <c r="A65" t="n">
-        <v>6836</v>
+        <v>10776</v>
       </c>
       <c r="B65" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C65" t="n">
-        <v>6836</v>
+        <v>10776</v>
       </c>
       <c r="D65" t="s">
         <v>45</v>
@@ -3115,13 +3115,13 @@
     </row>
     <row r="66" spans="1:27">
       <c r="A66" t="n">
-        <v>6837</v>
+        <v>10777</v>
       </c>
       <c r="B66" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C66" t="n">
-        <v>6837</v>
+        <v>10777</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="67" spans="1:27">
       <c r="A67" t="n">
-        <v>6838</v>
+        <v>10778</v>
       </c>
       <c r="B67" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C67" t="n">
-        <v>6838</v>
+        <v>10778</v>
       </c>
       <c r="D67" t="s">
         <v>46</v>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="68" spans="1:27">
       <c r="A68" t="n">
-        <v>6839</v>
+        <v>10779</v>
       </c>
       <c r="B68" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C68" t="n">
-        <v>6839</v>
+        <v>10779</v>
       </c>
       <c r="D68" t="s">
         <v>46</v>
@@ -3220,13 +3220,13 @@
     </row>
     <row r="69" spans="1:27">
       <c r="A69" t="n">
-        <v>6840</v>
+        <v>10780</v>
       </c>
       <c r="B69" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>6840</v>
+        <v>10780</v>
       </c>
       <c r="D69" t="s">
         <v>47</v>
@@ -3255,13 +3255,13 @@
     </row>
     <row r="70" spans="1:27">
       <c r="A70" t="n">
-        <v>6841</v>
+        <v>10781</v>
       </c>
       <c r="B70" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C70" t="n">
-        <v>6841</v>
+        <v>10781</v>
       </c>
       <c r="D70" t="s">
         <v>47</v>
@@ -3290,13 +3290,13 @@
     </row>
     <row r="71" spans="1:27">
       <c r="A71" t="n">
-        <v>6842</v>
+        <v>10782</v>
       </c>
       <c r="B71" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
-        <v>6842</v>
+        <v>10782</v>
       </c>
       <c r="D71" t="s">
         <v>47</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="72" spans="1:27">
       <c r="A72" t="n">
-        <v>6843</v>
+        <v>10783</v>
       </c>
       <c r="B72" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C72" t="n">
-        <v>6843</v>
+        <v>10783</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -3360,13 +3360,13 @@
     </row>
     <row r="73" spans="1:27">
       <c r="A73" t="n">
-        <v>6844</v>
+        <v>10784</v>
       </c>
       <c r="B73" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C73" t="n">
-        <v>6844</v>
+        <v>10784</v>
       </c>
       <c r="D73" t="s">
         <v>48</v>
@@ -3395,13 +3395,13 @@
     </row>
     <row r="74" spans="1:27">
       <c r="A74" t="n">
-        <v>6845</v>
+        <v>10785</v>
       </c>
       <c r="B74" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C74" t="n">
-        <v>6845</v>
+        <v>10785</v>
       </c>
       <c r="D74" t="s">
         <v>48</v>
@@ -3430,13 +3430,13 @@
     </row>
     <row r="75" spans="1:27">
       <c r="A75" t="n">
-        <v>6846</v>
+        <v>10786</v>
       </c>
       <c r="B75" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C75" t="n">
-        <v>6846</v>
+        <v>10786</v>
       </c>
       <c r="D75" t="s">
         <v>48</v>
@@ -3465,13 +3465,13 @@
     </row>
     <row r="76" spans="1:27">
       <c r="A76" t="n">
-        <v>6847</v>
+        <v>10787</v>
       </c>
       <c r="B76" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C76" t="n">
-        <v>6847</v>
+        <v>10787</v>
       </c>
       <c r="D76" t="s">
         <v>49</v>
@@ -3500,13 +3500,13 @@
     </row>
     <row r="77" spans="1:27">
       <c r="A77" t="n">
-        <v>6848</v>
+        <v>10788</v>
       </c>
       <c r="B77" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
-        <v>6848</v>
+        <v>10788</v>
       </c>
       <c r="D77" t="s">
         <v>49</v>
@@ -3535,13 +3535,13 @@
     </row>
     <row r="78" spans="1:27">
       <c r="A78" t="n">
-        <v>6849</v>
+        <v>10789</v>
       </c>
       <c r="B78" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C78" t="n">
-        <v>6849</v>
+        <v>10789</v>
       </c>
       <c r="D78" t="s">
         <v>49</v>
@@ -3570,13 +3570,13 @@
     </row>
     <row r="79" spans="1:27">
       <c r="A79" t="n">
-        <v>6850</v>
+        <v>10790</v>
       </c>
       <c r="B79" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C79" t="n">
-        <v>6850</v>
+        <v>10790</v>
       </c>
       <c r="D79" t="s">
         <v>49</v>
@@ -3605,13 +3605,13 @@
     </row>
     <row r="80" spans="1:27">
       <c r="A80" t="n">
-        <v>6851</v>
+        <v>10791</v>
       </c>
       <c r="B80" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C80" t="n">
-        <v>6851</v>
+        <v>10791</v>
       </c>
       <c r="D80" t="s">
         <v>49</v>
@@ -3640,13 +3640,13 @@
     </row>
     <row r="81" spans="1:27">
       <c r="A81" t="n">
-        <v>6852</v>
+        <v>10792</v>
       </c>
       <c r="B81" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C81" t="n">
-        <v>6852</v>
+        <v>10792</v>
       </c>
       <c r="D81" t="s">
         <v>49</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="82" spans="1:27">
       <c r="A82" t="n">
-        <v>6853</v>
+        <v>10793</v>
       </c>
       <c r="B82" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C82" t="n">
-        <v>6853</v>
+        <v>10793</v>
       </c>
       <c r="D82" t="s">
         <v>50</v>
@@ -3710,13 +3710,13 @@
     </row>
     <row r="83" spans="1:27">
       <c r="A83" t="n">
-        <v>6854</v>
+        <v>10794</v>
       </c>
       <c r="B83" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C83" t="n">
-        <v>6854</v>
+        <v>10794</v>
       </c>
       <c r="D83" t="s">
         <v>50</v>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="84" spans="1:27">
       <c r="A84" t="n">
-        <v>6855</v>
+        <v>10795</v>
       </c>
       <c r="B84" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C84" t="n">
-        <v>6855</v>
+        <v>10795</v>
       </c>
       <c r="D84" t="s">
         <v>50</v>
@@ -3780,13 +3780,13 @@
     </row>
     <row r="85" spans="1:27">
       <c r="A85" t="n">
-        <v>6856</v>
+        <v>10796</v>
       </c>
       <c r="B85" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C85" t="n">
-        <v>6856</v>
+        <v>10796</v>
       </c>
       <c r="D85" t="s">
         <v>50</v>
@@ -3815,13 +3815,13 @@
     </row>
     <row r="86" spans="1:27">
       <c r="A86" t="n">
-        <v>6857</v>
+        <v>10797</v>
       </c>
       <c r="B86" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C86" t="n">
-        <v>6857</v>
+        <v>10797</v>
       </c>
       <c r="D86" t="s">
         <v>50</v>
@@ -3850,13 +3850,13 @@
     </row>
     <row r="87" spans="1:27">
       <c r="A87" t="n">
-        <v>6858</v>
+        <v>10798</v>
       </c>
       <c r="B87" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C87" t="n">
-        <v>6858</v>
+        <v>10798</v>
       </c>
       <c r="D87" t="s">
         <v>50</v>
@@ -3885,13 +3885,13 @@
     </row>
     <row r="88" spans="1:27">
       <c r="A88" t="n">
-        <v>6859</v>
+        <v>10799</v>
       </c>
       <c r="B88" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
-        <v>6859</v>
+        <v>10799</v>
       </c>
       <c r="D88" t="s">
         <v>51</v>
@@ -3920,13 +3920,13 @@
     </row>
     <row r="89" spans="1:27">
       <c r="A89" t="n">
-        <v>6860</v>
+        <v>10800</v>
       </c>
       <c r="B89" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
-        <v>6860</v>
+        <v>10800</v>
       </c>
       <c r="D89" t="s">
         <v>51</v>
@@ -3955,13 +3955,13 @@
     </row>
     <row r="90" spans="1:27">
       <c r="A90" t="n">
-        <v>6861</v>
+        <v>10801</v>
       </c>
       <c r="B90" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C90" t="n">
-        <v>6861</v>
+        <v>10801</v>
       </c>
       <c r="D90" t="s">
         <v>51</v>
@@ -3990,13 +3990,13 @@
     </row>
     <row r="91" spans="1:27">
       <c r="A91" t="n">
-        <v>6862</v>
+        <v>10802</v>
       </c>
       <c r="B91" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C91" t="n">
-        <v>6862</v>
+        <v>10802</v>
       </c>
       <c r="D91" t="s">
         <v>52</v>
@@ -4025,13 +4025,13 @@
     </row>
     <row r="92" spans="1:27">
       <c r="A92" t="n">
-        <v>6863</v>
+        <v>10803</v>
       </c>
       <c r="B92" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C92" t="n">
-        <v>6863</v>
+        <v>10803</v>
       </c>
       <c r="D92" t="s">
         <v>52</v>
@@ -4060,13 +4060,13 @@
     </row>
     <row r="93" spans="1:27">
       <c r="A93" t="n">
-        <v>6864</v>
+        <v>10804</v>
       </c>
       <c r="B93" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C93" t="n">
-        <v>6864</v>
+        <v>10804</v>
       </c>
       <c r="D93" t="s">
         <v>52</v>
@@ -4095,13 +4095,13 @@
     </row>
     <row r="94" spans="1:27">
       <c r="A94" t="n">
-        <v>6865</v>
+        <v>10805</v>
       </c>
       <c r="B94" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C94" t="n">
-        <v>6865</v>
+        <v>10805</v>
       </c>
       <c r="D94" t="s">
         <v>53</v>
@@ -4130,13 +4130,13 @@
     </row>
     <row r="95" spans="1:27">
       <c r="A95" t="n">
-        <v>6866</v>
+        <v>10806</v>
       </c>
       <c r="B95" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C95" t="n">
-        <v>6866</v>
+        <v>10806</v>
       </c>
       <c r="D95" t="s">
         <v>53</v>
@@ -4165,13 +4165,13 @@
     </row>
     <row r="96" spans="1:27">
       <c r="A96" t="n">
-        <v>6867</v>
+        <v>10807</v>
       </c>
       <c r="B96" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
-        <v>6867</v>
+        <v>10807</v>
       </c>
       <c r="D96" t="s">
         <v>53</v>
@@ -4200,13 +4200,13 @@
     </row>
     <row r="97" spans="1:27">
       <c r="A97" t="n">
-        <v>6868</v>
+        <v>10808</v>
       </c>
       <c r="B97" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C97" t="n">
-        <v>6868</v>
+        <v>10808</v>
       </c>
       <c r="D97" t="s">
         <v>54</v>
@@ -4235,13 +4235,13 @@
     </row>
     <row r="98" spans="1:27">
       <c r="A98" t="n">
-        <v>6869</v>
+        <v>10809</v>
       </c>
       <c r="B98" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C98" t="n">
-        <v>6869</v>
+        <v>10809</v>
       </c>
       <c r="D98" t="s">
         <v>54</v>
@@ -4270,13 +4270,13 @@
     </row>
     <row r="99" spans="1:27">
       <c r="A99" t="n">
-        <v>6870</v>
+        <v>10810</v>
       </c>
       <c r="B99" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C99" t="n">
-        <v>6870</v>
+        <v>10810</v>
       </c>
       <c r="D99" t="s">
         <v>55</v>
@@ -4305,13 +4305,13 @@
     </row>
     <row r="100" spans="1:27">
       <c r="A100" t="n">
-        <v>6871</v>
+        <v>10811</v>
       </c>
       <c r="B100" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C100" t="n">
-        <v>6871</v>
+        <v>10811</v>
       </c>
       <c r="D100" t="s">
         <v>55</v>
@@ -4340,13 +4340,13 @@
     </row>
     <row r="101" spans="1:27">
       <c r="A101" t="n">
-        <v>6872</v>
+        <v>10812</v>
       </c>
       <c r="B101" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C101" t="n">
-        <v>6872</v>
+        <v>10812</v>
       </c>
       <c r="D101" t="s">
         <v>55</v>
@@ -4375,13 +4375,13 @@
     </row>
     <row r="102" spans="1:27">
       <c r="A102" t="n">
-        <v>6873</v>
+        <v>10813</v>
       </c>
       <c r="B102" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C102" t="n">
-        <v>6873</v>
+        <v>10813</v>
       </c>
       <c r="D102" t="s">
         <v>55</v>
@@ -4410,13 +4410,13 @@
     </row>
     <row r="103" spans="1:27">
       <c r="A103" t="n">
-        <v>6874</v>
+        <v>10814</v>
       </c>
       <c r="B103" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C103" t="n">
-        <v>6874</v>
+        <v>10814</v>
       </c>
       <c r="D103" t="s">
         <v>56</v>
@@ -4445,13 +4445,13 @@
     </row>
     <row r="104" spans="1:27">
       <c r="A104" t="n">
-        <v>6875</v>
+        <v>10815</v>
       </c>
       <c r="B104" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C104" t="n">
-        <v>6875</v>
+        <v>10815</v>
       </c>
       <c r="D104" t="s">
         <v>56</v>
@@ -4480,13 +4480,13 @@
     </row>
     <row r="105" spans="1:27">
       <c r="A105" t="n">
-        <v>6876</v>
+        <v>10816</v>
       </c>
       <c r="B105" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C105" t="n">
-        <v>6876</v>
+        <v>10816</v>
       </c>
       <c r="D105" t="s">
         <v>56</v>
@@ -4515,13 +4515,13 @@
     </row>
     <row r="106" spans="1:27">
       <c r="A106" t="n">
-        <v>6877</v>
+        <v>10817</v>
       </c>
       <c r="B106" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C106" t="n">
-        <v>6877</v>
+        <v>10817</v>
       </c>
       <c r="D106" t="s">
         <v>56</v>
@@ -4550,13 +4550,13 @@
     </row>
     <row r="107" spans="1:27">
       <c r="A107" t="n">
-        <v>6878</v>
+        <v>10818</v>
       </c>
       <c r="B107" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C107" t="n">
-        <v>6878</v>
+        <v>10818</v>
       </c>
       <c r="D107" t="s">
         <v>56</v>
@@ -4585,13 +4585,13 @@
     </row>
     <row r="108" spans="1:27">
       <c r="A108" t="n">
-        <v>6879</v>
+        <v>10819</v>
       </c>
       <c r="B108" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C108" t="n">
-        <v>6879</v>
+        <v>10819</v>
       </c>
       <c r="D108" t="s">
         <v>56</v>
@@ -4620,13 +4620,13 @@
     </row>
     <row r="109" spans="1:27">
       <c r="A109" t="n">
-        <v>6880</v>
+        <v>10820</v>
       </c>
       <c r="B109" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C109" t="n">
-        <v>6880</v>
+        <v>10820</v>
       </c>
       <c r="D109" t="s">
         <v>56</v>
@@ -4655,13 +4655,13 @@
     </row>
     <row r="110" spans="1:27">
       <c r="A110" t="n">
-        <v>6881</v>
+        <v>10821</v>
       </c>
       <c r="B110" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C110" t="n">
-        <v>6881</v>
+        <v>10821</v>
       </c>
       <c r="D110" t="s">
         <v>56</v>
@@ -4690,13 +4690,13 @@
     </row>
     <row r="111" spans="1:27">
       <c r="A111" t="n">
-        <v>6882</v>
+        <v>10822</v>
       </c>
       <c r="B111" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C111" t="n">
-        <v>6882</v>
+        <v>10822</v>
       </c>
       <c r="D111" t="s">
         <v>57</v>
@@ -4725,13 +4725,13 @@
     </row>
     <row r="112" spans="1:27">
       <c r="A112" t="n">
-        <v>6883</v>
+        <v>10823</v>
       </c>
       <c r="B112" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C112" t="n">
-        <v>6883</v>
+        <v>10823</v>
       </c>
       <c r="D112" t="s">
         <v>57</v>
@@ -4760,13 +4760,13 @@
     </row>
     <row r="113" spans="1:27">
       <c r="A113" t="n">
-        <v>6884</v>
+        <v>10824</v>
       </c>
       <c r="B113" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C113" t="n">
-        <v>6884</v>
+        <v>10824</v>
       </c>
       <c r="D113" t="s">
         <v>57</v>
@@ -4795,13 +4795,13 @@
     </row>
     <row r="114" spans="1:27">
       <c r="A114" t="n">
-        <v>6885</v>
+        <v>10825</v>
       </c>
       <c r="B114" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C114" t="n">
-        <v>6885</v>
+        <v>10825</v>
       </c>
       <c r="D114" t="s">
         <v>57</v>
@@ -4830,13 +4830,13 @@
     </row>
     <row r="115" spans="1:27">
       <c r="A115" t="n">
-        <v>6886</v>
+        <v>10826</v>
       </c>
       <c r="B115" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C115" t="n">
-        <v>6886</v>
+        <v>10826</v>
       </c>
       <c r="D115" t="s">
         <v>58</v>
@@ -4865,13 +4865,13 @@
     </row>
     <row r="116" spans="1:27">
       <c r="A116" t="n">
-        <v>6887</v>
+        <v>10827</v>
       </c>
       <c r="B116" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C116" t="n">
-        <v>6887</v>
+        <v>10827</v>
       </c>
       <c r="D116" t="s">
         <v>58</v>
@@ -4900,13 +4900,13 @@
     </row>
     <row r="117" spans="1:27">
       <c r="A117" t="n">
-        <v>6888</v>
+        <v>10828</v>
       </c>
       <c r="B117" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C117" t="n">
-        <v>6888</v>
+        <v>10828</v>
       </c>
       <c r="D117" t="s">
         <v>58</v>
@@ -4935,13 +4935,13 @@
     </row>
     <row r="118" spans="1:27">
       <c r="A118" t="n">
-        <v>6889</v>
+        <v>10829</v>
       </c>
       <c r="B118" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C118" t="n">
-        <v>6889</v>
+        <v>10829</v>
       </c>
       <c r="D118" t="s">
         <v>59</v>
@@ -4970,13 +4970,13 @@
     </row>
     <row r="119" spans="1:27">
       <c r="A119" t="n">
-        <v>6890</v>
+        <v>10830</v>
       </c>
       <c r="B119" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C119" t="n">
-        <v>6890</v>
+        <v>10830</v>
       </c>
       <c r="D119" t="s">
         <v>59</v>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="120" spans="1:27">
       <c r="A120" t="n">
-        <v>6891</v>
+        <v>10831</v>
       </c>
       <c r="B120" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C120" t="n">
-        <v>6891</v>
+        <v>10831</v>
       </c>
       <c r="D120" t="s">
         <v>59</v>
@@ -5040,13 +5040,13 @@
     </row>
     <row r="121" spans="1:27">
       <c r="A121" t="n">
-        <v>6892</v>
+        <v>10832</v>
       </c>
       <c r="B121" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C121" t="n">
-        <v>6892</v>
+        <v>10832</v>
       </c>
       <c r="D121" t="s">
         <v>59</v>
@@ -5075,13 +5075,13 @@
     </row>
     <row r="122" spans="1:27">
       <c r="A122" t="n">
-        <v>6893</v>
+        <v>10833</v>
       </c>
       <c r="B122" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C122" t="n">
-        <v>6893</v>
+        <v>10833</v>
       </c>
       <c r="D122" t="s">
         <v>60</v>
@@ -5110,13 +5110,13 @@
     </row>
     <row r="123" spans="1:27">
       <c r="A123" t="n">
-        <v>6894</v>
+        <v>10834</v>
       </c>
       <c r="B123" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C123" t="n">
-        <v>6894</v>
+        <v>10834</v>
       </c>
       <c r="D123" t="s">
         <v>60</v>
@@ -5145,13 +5145,13 @@
     </row>
     <row r="124" spans="1:27">
       <c r="A124" t="n">
-        <v>6895</v>
+        <v>10835</v>
       </c>
       <c r="B124" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C124" t="n">
-        <v>6895</v>
+        <v>10835</v>
       </c>
       <c r="D124" t="s">
         <v>60</v>
@@ -5180,13 +5180,13 @@
     </row>
     <row r="125" spans="1:27">
       <c r="A125" t="n">
-        <v>6896</v>
+        <v>10836</v>
       </c>
       <c r="B125" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C125" t="n">
-        <v>6896</v>
+        <v>10836</v>
       </c>
       <c r="D125" t="s">
         <v>61</v>
@@ -5215,13 +5215,13 @@
     </row>
     <row r="126" spans="1:27">
       <c r="A126" t="n">
-        <v>6897</v>
+        <v>10837</v>
       </c>
       <c r="B126" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C126" t="n">
-        <v>6897</v>
+        <v>10837</v>
       </c>
       <c r="D126" t="s">
         <v>61</v>
@@ -5250,13 +5250,13 @@
     </row>
     <row r="127" spans="1:27">
       <c r="A127" t="n">
-        <v>6898</v>
+        <v>10838</v>
       </c>
       <c r="B127" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C127" t="n">
-        <v>6898</v>
+        <v>10838</v>
       </c>
       <c r="D127" t="s">
         <v>61</v>
@@ -5285,13 +5285,13 @@
     </row>
     <row r="128" spans="1:27">
       <c r="A128" t="n">
-        <v>6899</v>
+        <v>10839</v>
       </c>
       <c r="B128" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C128" t="n">
-        <v>6899</v>
+        <v>10839</v>
       </c>
       <c r="D128" t="s">
         <v>62</v>
@@ -5320,13 +5320,13 @@
     </row>
     <row r="129" spans="1:27">
       <c r="A129" t="n">
-        <v>6900</v>
+        <v>10840</v>
       </c>
       <c r="B129" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C129" t="n">
-        <v>6900</v>
+        <v>10840</v>
       </c>
       <c r="D129" t="s">
         <v>62</v>
@@ -5355,13 +5355,13 @@
     </row>
     <row r="130" spans="1:27">
       <c r="A130" t="n">
-        <v>6901</v>
+        <v>10841</v>
       </c>
       <c r="B130" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C130" t="n">
-        <v>6901</v>
+        <v>10841</v>
       </c>
       <c r="D130" t="s">
         <v>62</v>
@@ -5390,13 +5390,13 @@
     </row>
     <row r="131" spans="1:27">
       <c r="A131" t="n">
-        <v>6902</v>
+        <v>10842</v>
       </c>
       <c r="B131" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
-        <v>6902</v>
+        <v>10842</v>
       </c>
       <c r="D131" t="s">
         <v>63</v>
@@ -5425,13 +5425,13 @@
     </row>
     <row r="132" spans="1:27">
       <c r="A132" t="n">
-        <v>6903</v>
+        <v>10843</v>
       </c>
       <c r="B132" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>6903</v>
+        <v>10843</v>
       </c>
       <c r="D132" t="s">
         <v>63</v>
@@ -5460,13 +5460,13 @@
     </row>
     <row r="133" spans="1:27">
       <c r="A133" t="n">
-        <v>6904</v>
+        <v>10844</v>
       </c>
       <c r="B133" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C133" t="n">
-        <v>6904</v>
+        <v>10844</v>
       </c>
       <c r="D133" t="s">
         <v>64</v>
@@ -5495,13 +5495,13 @@
     </row>
     <row r="134" spans="1:27">
       <c r="A134" t="n">
-        <v>6905</v>
+        <v>10845</v>
       </c>
       <c r="B134" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C134" t="n">
-        <v>6905</v>
+        <v>10845</v>
       </c>
       <c r="D134" t="s">
         <v>64</v>
@@ -5530,13 +5530,13 @@
     </row>
     <row r="135" spans="1:27">
       <c r="A135" t="n">
-        <v>6906</v>
+        <v>10846</v>
       </c>
       <c r="B135" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C135" t="n">
-        <v>6906</v>
+        <v>10846</v>
       </c>
       <c r="D135" t="s">
         <v>64</v>
@@ -5565,13 +5565,13 @@
     </row>
     <row r="136" spans="1:27">
       <c r="A136" t="n">
-        <v>6907</v>
+        <v>10847</v>
       </c>
       <c r="B136" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C136" t="n">
-        <v>6907</v>
+        <v>10847</v>
       </c>
       <c r="D136" t="s">
         <v>65</v>
@@ -5600,13 +5600,13 @@
     </row>
     <row r="137" spans="1:27">
       <c r="A137" t="n">
-        <v>6908</v>
+        <v>10848</v>
       </c>
       <c r="B137" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C137" t="n">
-        <v>6908</v>
+        <v>10848</v>
       </c>
       <c r="D137" t="s">
         <v>65</v>
@@ -5635,13 +5635,13 @@
     </row>
     <row r="138" spans="1:27">
       <c r="A138" t="n">
-        <v>6909</v>
+        <v>10849</v>
       </c>
       <c r="B138" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C138" t="n">
-        <v>6909</v>
+        <v>10849</v>
       </c>
       <c r="D138" t="s">
         <v>65</v>
@@ -5670,13 +5670,13 @@
     </row>
     <row r="139" spans="1:27">
       <c r="A139" t="n">
-        <v>6910</v>
+        <v>10850</v>
       </c>
       <c r="B139" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C139" t="n">
-        <v>6910</v>
+        <v>10850</v>
       </c>
       <c r="D139" t="s">
         <v>66</v>
@@ -5705,13 +5705,13 @@
     </row>
     <row r="140" spans="1:27">
       <c r="A140" t="n">
-        <v>6911</v>
+        <v>10851</v>
       </c>
       <c r="B140" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C140" t="n">
-        <v>6911</v>
+        <v>10851</v>
       </c>
       <c r="D140" t="s">
         <v>66</v>
@@ -5740,13 +5740,13 @@
     </row>
     <row r="141" spans="1:27">
       <c r="A141" t="n">
-        <v>6912</v>
+        <v>10852</v>
       </c>
       <c r="B141" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C141" t="n">
-        <v>6912</v>
+        <v>10852</v>
       </c>
       <c r="D141" t="s">
         <v>67</v>
@@ -5775,13 +5775,13 @@
     </row>
     <row r="142" spans="1:27">
       <c r="A142" t="n">
-        <v>6913</v>
+        <v>10853</v>
       </c>
       <c r="B142" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C142" t="n">
-        <v>6913</v>
+        <v>10853</v>
       </c>
       <c r="D142" t="s">
         <v>67</v>
@@ -5810,13 +5810,13 @@
     </row>
     <row r="143" spans="1:27">
       <c r="A143" t="n">
-        <v>6914</v>
+        <v>10854</v>
       </c>
       <c r="B143" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C143" t="n">
-        <v>6914</v>
+        <v>10854</v>
       </c>
       <c r="D143" t="s">
         <v>68</v>
@@ -5845,13 +5845,13 @@
     </row>
     <row r="144" spans="1:27">
       <c r="A144" t="n">
-        <v>6915</v>
+        <v>10855</v>
       </c>
       <c r="B144" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C144" t="n">
-        <v>6915</v>
+        <v>10855</v>
       </c>
       <c r="D144" t="s">
         <v>68</v>
@@ -5880,13 +5880,13 @@
     </row>
     <row r="145" spans="1:27">
       <c r="A145" t="n">
-        <v>6916</v>
+        <v>10856</v>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C145" t="n">
-        <v>6916</v>
+        <v>10856</v>
       </c>
       <c r="D145" t="s">
         <v>69</v>
@@ -5915,13 +5915,13 @@
     </row>
     <row r="146" spans="1:27">
       <c r="A146" t="n">
-        <v>6917</v>
+        <v>10857</v>
       </c>
       <c r="B146" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C146" t="n">
-        <v>6917</v>
+        <v>10857</v>
       </c>
       <c r="D146" t="s">
         <v>69</v>
@@ -5950,13 +5950,13 @@
     </row>
     <row r="147" spans="1:27">
       <c r="A147" t="n">
-        <v>6918</v>
+        <v>10858</v>
       </c>
       <c r="B147" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C147" t="n">
-        <v>6918</v>
+        <v>10858</v>
       </c>
       <c r="D147" t="s">
         <v>70</v>
@@ -5985,13 +5985,13 @@
     </row>
     <row r="148" spans="1:27">
       <c r="A148" t="n">
-        <v>6919</v>
+        <v>10859</v>
       </c>
       <c r="B148" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C148" t="n">
-        <v>6919</v>
+        <v>10859</v>
       </c>
       <c r="D148" t="s">
         <v>70</v>
@@ -6020,13 +6020,13 @@
     </row>
     <row r="149" spans="1:27">
       <c r="A149" t="n">
-        <v>6920</v>
+        <v>10860</v>
       </c>
       <c r="B149" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C149" t="n">
-        <v>6920</v>
+        <v>10860</v>
       </c>
       <c r="D149" t="s">
         <v>71</v>
@@ -6055,13 +6055,13 @@
     </row>
     <row r="150" spans="1:27">
       <c r="A150" t="n">
-        <v>6921</v>
+        <v>10861</v>
       </c>
       <c r="B150" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C150" t="n">
-        <v>6921</v>
+        <v>10861</v>
       </c>
       <c r="D150" t="s">
         <v>71</v>
@@ -6090,13 +6090,13 @@
     </row>
     <row r="151" spans="1:27">
       <c r="A151" t="n">
-        <v>6922</v>
+        <v>10862</v>
       </c>
       <c r="B151" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C151" t="n">
-        <v>6922</v>
+        <v>10862</v>
       </c>
       <c r="D151" t="s">
         <v>72</v>
@@ -6125,13 +6125,13 @@
     </row>
     <row r="152" spans="1:27">
       <c r="A152" t="n">
-        <v>6923</v>
+        <v>10863</v>
       </c>
       <c r="B152" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C152" t="n">
-        <v>6923</v>
+        <v>10863</v>
       </c>
       <c r="D152" t="s">
         <v>72</v>
@@ -6160,13 +6160,13 @@
     </row>
     <row r="153" spans="1:27">
       <c r="A153" t="n">
-        <v>6924</v>
+        <v>10864</v>
       </c>
       <c r="B153" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C153" t="n">
-        <v>6924</v>
+        <v>10864</v>
       </c>
       <c r="D153" t="s">
         <v>73</v>
@@ -6195,13 +6195,13 @@
     </row>
     <row r="154" spans="1:27">
       <c r="A154" t="n">
-        <v>6925</v>
+        <v>10865</v>
       </c>
       <c r="B154" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C154" t="n">
-        <v>6925</v>
+        <v>10865</v>
       </c>
       <c r="D154" t="s">
         <v>73</v>
@@ -6230,13 +6230,13 @@
     </row>
     <row r="155" spans="1:27">
       <c r="A155" t="n">
-        <v>6926</v>
+        <v>10866</v>
       </c>
       <c r="B155" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C155" t="n">
-        <v>6926</v>
+        <v>10866</v>
       </c>
       <c r="D155" t="s">
         <v>74</v>
@@ -6265,13 +6265,13 @@
     </row>
     <row r="156" spans="1:27">
       <c r="A156" t="n">
-        <v>6927</v>
+        <v>10867</v>
       </c>
       <c r="B156" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C156" t="n">
-        <v>6927</v>
+        <v>10867</v>
       </c>
       <c r="D156" t="s">
         <v>74</v>
@@ -6300,13 +6300,13 @@
     </row>
     <row r="157" spans="1:27">
       <c r="A157" t="n">
-        <v>6928</v>
+        <v>10868</v>
       </c>
       <c r="B157" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C157" t="n">
-        <v>6928</v>
+        <v>10868</v>
       </c>
       <c r="D157" t="s">
         <v>74</v>
@@ -6335,13 +6335,13 @@
     </row>
     <row r="158" spans="1:27">
       <c r="A158" t="n">
-        <v>6929</v>
+        <v>10869</v>
       </c>
       <c r="B158" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C158" t="n">
-        <v>6929</v>
+        <v>10869</v>
       </c>
       <c r="D158" t="s">
         <v>75</v>
@@ -6370,13 +6370,13 @@
     </row>
     <row r="159" spans="1:27">
       <c r="A159" t="n">
-        <v>6930</v>
+        <v>10870</v>
       </c>
       <c r="B159" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C159" t="n">
-        <v>6930</v>
+        <v>10870</v>
       </c>
       <c r="D159" t="s">
         <v>75</v>
@@ -6405,13 +6405,13 @@
     </row>
     <row r="160" spans="1:27">
       <c r="A160" t="n">
-        <v>6931</v>
+        <v>10871</v>
       </c>
       <c r="B160" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C160" t="n">
-        <v>6931</v>
+        <v>10871</v>
       </c>
       <c r="D160" t="s">
         <v>75</v>
@@ -6440,13 +6440,13 @@
     </row>
     <row r="161" spans="1:27">
       <c r="A161" t="n">
-        <v>6932</v>
+        <v>10872</v>
       </c>
       <c r="B161" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C161" t="n">
-        <v>6932</v>
+        <v>10872</v>
       </c>
       <c r="D161" t="s">
         <v>75</v>
@@ -6475,13 +6475,13 @@
     </row>
     <row r="162" spans="1:27">
       <c r="A162" t="n">
-        <v>6933</v>
+        <v>10873</v>
       </c>
       <c r="B162" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C162" t="n">
-        <v>6933</v>
+        <v>10873</v>
       </c>
       <c r="D162" t="s">
         <v>75</v>
@@ -6510,13 +6510,13 @@
     </row>
     <row r="163" spans="1:27">
       <c r="A163" t="n">
-        <v>6934</v>
+        <v>10874</v>
       </c>
       <c r="B163" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C163" t="n">
-        <v>6934</v>
+        <v>10874</v>
       </c>
       <c r="D163" t="s">
         <v>76</v>
@@ -6545,13 +6545,13 @@
     </row>
     <row r="164" spans="1:27">
       <c r="A164" t="n">
-        <v>6935</v>
+        <v>10875</v>
       </c>
       <c r="B164" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C164" t="n">
-        <v>6935</v>
+        <v>10875</v>
       </c>
       <c r="D164" t="s">
         <v>76</v>
@@ -6580,13 +6580,13 @@
     </row>
     <row r="165" spans="1:27">
       <c r="A165" t="n">
-        <v>6936</v>
+        <v>10876</v>
       </c>
       <c r="B165" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C165" t="n">
-        <v>6936</v>
+        <v>10876</v>
       </c>
       <c r="D165" t="s">
         <v>76</v>
@@ -6615,13 +6615,13 @@
     </row>
     <row r="166" spans="1:27">
       <c r="A166" t="n">
-        <v>6937</v>
+        <v>10877</v>
       </c>
       <c r="B166" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C166" t="n">
-        <v>6937</v>
+        <v>10877</v>
       </c>
       <c r="D166" t="s">
         <v>76</v>
@@ -6650,13 +6650,13 @@
     </row>
     <row r="167" spans="1:27">
       <c r="A167" t="n">
-        <v>6938</v>
+        <v>10878</v>
       </c>
       <c r="B167" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C167" t="n">
-        <v>6938</v>
+        <v>10878</v>
       </c>
       <c r="D167" t="s">
         <v>76</v>
@@ -6685,13 +6685,13 @@
     </row>
     <row r="168" spans="1:27">
       <c r="A168" t="n">
-        <v>6939</v>
+        <v>10879</v>
       </c>
       <c r="B168" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C168" t="n">
-        <v>6939</v>
+        <v>10879</v>
       </c>
       <c r="D168" t="s">
         <v>77</v>
@@ -6720,13 +6720,13 @@
     </row>
     <row r="169" spans="1:27">
       <c r="A169" t="n">
-        <v>6940</v>
+        <v>10880</v>
       </c>
       <c r="B169" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C169" t="n">
-        <v>6940</v>
+        <v>10880</v>
       </c>
       <c r="D169" t="s">
         <v>77</v>
@@ -6755,13 +6755,13 @@
     </row>
     <row r="170" spans="1:27">
       <c r="A170" t="n">
-        <v>6941</v>
+        <v>10881</v>
       </c>
       <c r="B170" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C170" t="n">
-        <v>6941</v>
+        <v>10881</v>
       </c>
       <c r="D170" t="s">
         <v>78</v>
@@ -6790,13 +6790,13 @@
     </row>
     <row r="171" spans="1:27">
       <c r="A171" t="n">
-        <v>6942</v>
+        <v>10882</v>
       </c>
       <c r="B171" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C171" t="n">
-        <v>6942</v>
+        <v>10882</v>
       </c>
       <c r="D171" t="s">
         <v>78</v>
@@ -6825,13 +6825,13 @@
     </row>
     <row r="172" spans="1:27">
       <c r="A172" t="n">
-        <v>6943</v>
+        <v>10883</v>
       </c>
       <c r="B172" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C172" t="n">
-        <v>6943</v>
+        <v>10883</v>
       </c>
       <c r="D172" t="s">
         <v>78</v>
@@ -6860,13 +6860,13 @@
     </row>
     <row r="173" spans="1:27">
       <c r="A173" t="n">
-        <v>6944</v>
+        <v>10884</v>
       </c>
       <c r="B173" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C173" t="n">
-        <v>6944</v>
+        <v>10884</v>
       </c>
       <c r="D173" t="s">
         <v>79</v>
@@ -6895,13 +6895,13 @@
     </row>
     <row r="174" spans="1:27">
       <c r="A174" t="n">
-        <v>6945</v>
+        <v>10885</v>
       </c>
       <c r="B174" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C174" t="n">
-        <v>6945</v>
+        <v>10885</v>
       </c>
       <c r="D174" t="s">
         <v>79</v>
@@ -6930,13 +6930,13 @@
     </row>
     <row r="175" spans="1:27">
       <c r="A175" t="n">
-        <v>6946</v>
+        <v>10886</v>
       </c>
       <c r="B175" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C175" t="n">
-        <v>6946</v>
+        <v>10886</v>
       </c>
       <c r="D175" t="s">
         <v>80</v>
@@ -6965,13 +6965,13 @@
     </row>
     <row r="176" spans="1:27">
       <c r="A176" t="n">
-        <v>6947</v>
+        <v>10887</v>
       </c>
       <c r="B176" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C176" t="n">
-        <v>6947</v>
+        <v>10887</v>
       </c>
       <c r="D176" t="s">
         <v>80</v>
@@ -7000,13 +7000,13 @@
     </row>
     <row r="177" spans="1:27">
       <c r="A177" t="n">
-        <v>6948</v>
+        <v>10888</v>
       </c>
       <c r="B177" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C177" t="n">
-        <v>6948</v>
+        <v>10888</v>
       </c>
       <c r="D177" t="s">
         <v>80</v>
@@ -7035,13 +7035,13 @@
     </row>
     <row r="178" spans="1:27">
       <c r="A178" t="n">
-        <v>6949</v>
+        <v>10889</v>
       </c>
       <c r="B178" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C178" t="n">
-        <v>6949</v>
+        <v>10889</v>
       </c>
       <c r="D178" t="s">
         <v>80</v>
@@ -7070,13 +7070,13 @@
     </row>
     <row r="179" spans="1:27">
       <c r="A179" t="n">
-        <v>6950</v>
+        <v>10890</v>
       </c>
       <c r="B179" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C179" t="n">
-        <v>6950</v>
+        <v>10890</v>
       </c>
       <c r="D179" t="s">
         <v>80</v>
@@ -7105,13 +7105,13 @@
     </row>
     <row r="180" spans="1:27">
       <c r="A180" t="n">
-        <v>6951</v>
+        <v>10891</v>
       </c>
       <c r="B180" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C180" t="n">
-        <v>6951</v>
+        <v>10891</v>
       </c>
       <c r="D180" t="s">
         <v>80</v>
@@ -7140,13 +7140,13 @@
     </row>
     <row r="181" spans="1:27">
       <c r="A181" t="n">
-        <v>6952</v>
+        <v>10892</v>
       </c>
       <c r="B181" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C181" t="n">
-        <v>6952</v>
+        <v>10892</v>
       </c>
       <c r="D181" t="s">
         <v>81</v>
@@ -7175,13 +7175,13 @@
     </row>
     <row r="182" spans="1:27">
       <c r="A182" t="n">
-        <v>6953</v>
+        <v>10893</v>
       </c>
       <c r="B182" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C182" t="n">
-        <v>6953</v>
+        <v>10893</v>
       </c>
       <c r="D182" t="s">
         <v>81</v>
@@ -7210,13 +7210,13 @@
     </row>
     <row r="183" spans="1:27">
       <c r="A183" t="n">
-        <v>6954</v>
+        <v>10894</v>
       </c>
       <c r="B183" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C183" t="n">
-        <v>6954</v>
+        <v>10894</v>
       </c>
       <c r="D183" t="s">
         <v>81</v>
@@ -7245,13 +7245,13 @@
     </row>
     <row r="184" spans="1:27">
       <c r="A184" t="n">
-        <v>6955</v>
+        <v>10895</v>
       </c>
       <c r="B184" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C184" t="n">
-        <v>6955</v>
+        <v>10895</v>
       </c>
       <c r="D184" t="s">
         <v>81</v>
@@ -7280,13 +7280,13 @@
     </row>
     <row r="185" spans="1:27">
       <c r="A185" t="n">
-        <v>6956</v>
+        <v>10896</v>
       </c>
       <c r="B185" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C185" t="n">
-        <v>6956</v>
+        <v>10896</v>
       </c>
       <c r="D185" t="s">
         <v>81</v>
@@ -7315,13 +7315,13 @@
     </row>
     <row r="186" spans="1:27">
       <c r="A186" t="n">
-        <v>6957</v>
+        <v>10897</v>
       </c>
       <c r="B186" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C186" t="n">
-        <v>6957</v>
+        <v>10897</v>
       </c>
       <c r="D186" t="s">
         <v>81</v>
@@ -7350,13 +7350,13 @@
     </row>
     <row r="187" spans="1:27">
       <c r="A187" t="n">
-        <v>6958</v>
+        <v>10898</v>
       </c>
       <c r="B187" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C187" t="n">
-        <v>6958</v>
+        <v>10898</v>
       </c>
       <c r="D187" t="s">
         <v>82</v>
@@ -7385,13 +7385,13 @@
     </row>
     <row r="188" spans="1:27">
       <c r="A188" t="n">
-        <v>6959</v>
+        <v>10899</v>
       </c>
       <c r="B188" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C188" t="n">
-        <v>6959</v>
+        <v>10899</v>
       </c>
       <c r="D188" t="s">
         <v>82</v>
@@ -7420,13 +7420,13 @@
     </row>
     <row r="189" spans="1:27">
       <c r="A189" t="n">
-        <v>6960</v>
+        <v>10900</v>
       </c>
       <c r="B189" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C189" t="n">
-        <v>6960</v>
+        <v>10900</v>
       </c>
       <c r="D189" t="s">
         <v>83</v>
@@ -7455,13 +7455,13 @@
     </row>
     <row r="190" spans="1:27">
       <c r="A190" t="n">
-        <v>6961</v>
+        <v>10901</v>
       </c>
       <c r="B190" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C190" t="n">
-        <v>6961</v>
+        <v>10901</v>
       </c>
       <c r="D190" t="s">
         <v>83</v>
@@ -7490,13 +7490,13 @@
     </row>
     <row r="191" spans="1:27">
       <c r="A191" t="n">
-        <v>6962</v>
+        <v>10902</v>
       </c>
       <c r="B191" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C191" t="n">
-        <v>6962</v>
+        <v>10902</v>
       </c>
       <c r="D191" t="s">
         <v>83</v>
@@ -7525,13 +7525,13 @@
     </row>
     <row r="192" spans="1:27">
       <c r="A192" t="n">
-        <v>6963</v>
+        <v>10903</v>
       </c>
       <c r="B192" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C192" t="n">
-        <v>6963</v>
+        <v>10903</v>
       </c>
       <c r="D192" t="s">
         <v>84</v>
@@ -7560,13 +7560,13 @@
     </row>
     <row r="193" spans="1:27">
       <c r="A193" t="n">
-        <v>6964</v>
+        <v>10904</v>
       </c>
       <c r="B193" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C193" t="n">
-        <v>6964</v>
+        <v>10904</v>
       </c>
       <c r="D193" t="s">
         <v>84</v>
@@ -7595,13 +7595,13 @@
     </row>
     <row r="194" spans="1:27">
       <c r="A194" t="n">
-        <v>6965</v>
+        <v>10905</v>
       </c>
       <c r="B194" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C194" t="n">
-        <v>6965</v>
+        <v>10905</v>
       </c>
       <c r="D194" t="s">
         <v>84</v>
@@ -7630,13 +7630,13 @@
     </row>
     <row r="195" spans="1:27">
       <c r="A195" t="n">
-        <v>6966</v>
+        <v>10906</v>
       </c>
       <c r="B195" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C195" t="n">
-        <v>6966</v>
+        <v>10906</v>
       </c>
       <c r="D195" t="s">
         <v>85</v>
@@ -7665,13 +7665,13 @@
     </row>
     <row r="196" spans="1:27">
       <c r="A196" t="n">
-        <v>6967</v>
+        <v>10907</v>
       </c>
       <c r="B196" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C196" t="n">
-        <v>6967</v>
+        <v>10907</v>
       </c>
       <c r="D196" t="s">
         <v>85</v>
@@ -7700,13 +7700,13 @@
     </row>
     <row r="197" spans="1:27">
       <c r="A197" t="n">
-        <v>6968</v>
+        <v>10908</v>
       </c>
       <c r="B197" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C197" t="n">
-        <v>6968</v>
+        <v>10908</v>
       </c>
       <c r="D197" t="s">
         <v>85</v>
@@ -7735,13 +7735,13 @@
     </row>
     <row r="198" spans="1:27">
       <c r="A198" t="n">
-        <v>6969</v>
+        <v>10909</v>
       </c>
       <c r="B198" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C198" t="n">
-        <v>6969</v>
+        <v>10909</v>
       </c>
       <c r="D198" t="s">
         <v>86</v>
@@ -7770,13 +7770,13 @@
     </row>
     <row r="199" spans="1:27">
       <c r="A199" t="n">
-        <v>6970</v>
+        <v>10910</v>
       </c>
       <c r="B199" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C199" t="n">
-        <v>6970</v>
+        <v>10910</v>
       </c>
       <c r="D199" t="s">
         <v>86</v>
@@ -7805,13 +7805,13 @@
     </row>
     <row r="200" spans="1:27">
       <c r="A200" t="n">
-        <v>6971</v>
+        <v>10911</v>
       </c>
       <c r="B200" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C200" t="n">
-        <v>6971</v>
+        <v>10911</v>
       </c>
       <c r="D200" t="s">
         <v>86</v>
@@ -7840,13 +7840,13 @@
     </row>
     <row r="201" spans="1:27">
       <c r="A201" t="n">
-        <v>6972</v>
+        <v>10912</v>
       </c>
       <c r="B201" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C201" t="n">
-        <v>6972</v>
+        <v>10912</v>
       </c>
       <c r="D201" t="s">
         <v>87</v>
@@ -7875,13 +7875,13 @@
     </row>
     <row r="202" spans="1:27">
       <c r="A202" t="n">
-        <v>6973</v>
+        <v>10913</v>
       </c>
       <c r="B202" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C202" t="n">
-        <v>6973</v>
+        <v>10913</v>
       </c>
       <c r="D202" t="s">
         <v>87</v>
@@ -7910,13 +7910,13 @@
     </row>
     <row r="203" spans="1:27">
       <c r="A203" t="n">
-        <v>6974</v>
+        <v>10914</v>
       </c>
       <c r="B203" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C203" t="n">
-        <v>6974</v>
+        <v>10914</v>
       </c>
       <c r="D203" t="s">
         <v>87</v>
@@ -7945,13 +7945,13 @@
     </row>
     <row r="204" spans="1:27">
       <c r="A204" t="n">
-        <v>6975</v>
+        <v>10915</v>
       </c>
       <c r="B204" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C204" t="n">
-        <v>6975</v>
+        <v>10915</v>
       </c>
       <c r="D204" t="s">
         <v>88</v>
@@ -7980,13 +7980,13 @@
     </row>
     <row r="205" spans="1:27">
       <c r="A205" t="n">
-        <v>6976</v>
+        <v>10916</v>
       </c>
       <c r="B205" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C205" t="n">
-        <v>6976</v>
+        <v>10916</v>
       </c>
       <c r="D205" t="s">
         <v>88</v>
@@ -8015,13 +8015,13 @@
     </row>
     <row r="206" spans="1:27">
       <c r="A206" t="n">
-        <v>6977</v>
+        <v>10917</v>
       </c>
       <c r="B206" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C206" t="n">
-        <v>6977</v>
+        <v>10917</v>
       </c>
       <c r="D206" t="s">
         <v>88</v>
@@ -8050,13 +8050,13 @@
     </row>
     <row r="207" spans="1:27">
       <c r="A207" t="n">
-        <v>6978</v>
+        <v>10918</v>
       </c>
       <c r="B207" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C207" t="n">
-        <v>6978</v>
+        <v>10918</v>
       </c>
       <c r="D207" t="s">
         <v>89</v>
@@ -8085,13 +8085,13 @@
     </row>
     <row r="208" spans="1:27">
       <c r="A208" t="n">
-        <v>6979</v>
+        <v>10919</v>
       </c>
       <c r="B208" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C208" t="n">
-        <v>6979</v>
+        <v>10919</v>
       </c>
       <c r="D208" t="s">
         <v>89</v>
@@ -8120,13 +8120,13 @@
     </row>
     <row r="209" spans="1:27">
       <c r="A209" t="n">
-        <v>6980</v>
+        <v>10920</v>
       </c>
       <c r="B209" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C209" t="n">
-        <v>6980</v>
+        <v>10920</v>
       </c>
       <c r="D209" t="s">
         <v>90</v>
@@ -8155,13 +8155,13 @@
     </row>
     <row r="210" spans="1:27">
       <c r="A210" t="n">
-        <v>6981</v>
+        <v>10921</v>
       </c>
       <c r="B210" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C210" t="n">
-        <v>6981</v>
+        <v>10921</v>
       </c>
       <c r="D210" t="s">
         <v>90</v>
@@ -8190,13 +8190,13 @@
     </row>
     <row r="211" spans="1:27">
       <c r="A211" t="n">
-        <v>6982</v>
+        <v>10922</v>
       </c>
       <c r="B211" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C211" t="n">
-        <v>6982</v>
+        <v>10922</v>
       </c>
       <c r="D211" t="s">
         <v>90</v>
@@ -8225,13 +8225,13 @@
     </row>
     <row r="212" spans="1:27">
       <c r="A212" t="n">
-        <v>6983</v>
+        <v>10923</v>
       </c>
       <c r="B212" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C212" t="n">
-        <v>6983</v>
+        <v>10923</v>
       </c>
       <c r="D212" t="s">
         <v>91</v>
@@ -8260,13 +8260,13 @@
     </row>
     <row r="213" spans="1:27">
       <c r="A213" t="n">
-        <v>6984</v>
+        <v>10924</v>
       </c>
       <c r="B213" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C213" t="n">
-        <v>6984</v>
+        <v>10924</v>
       </c>
       <c r="D213" t="s">
         <v>91</v>
@@ -8295,13 +8295,13 @@
     </row>
     <row r="214" spans="1:27">
       <c r="A214" t="n">
-        <v>6985</v>
+        <v>10925</v>
       </c>
       <c r="B214" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C214" t="n">
-        <v>6985</v>
+        <v>10925</v>
       </c>
       <c r="D214" t="s">
         <v>91</v>
@@ -8330,13 +8330,13 @@
     </row>
     <row r="215" spans="1:27">
       <c r="A215" t="n">
-        <v>6986</v>
+        <v>10926</v>
       </c>
       <c r="B215" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C215" t="n">
-        <v>6986</v>
+        <v>10926</v>
       </c>
       <c r="D215" t="s">
         <v>91</v>
@@ -8365,13 +8365,13 @@
     </row>
     <row r="216" spans="1:27">
       <c r="A216" t="n">
-        <v>6987</v>
+        <v>10927</v>
       </c>
       <c r="B216" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C216" t="n">
-        <v>6987</v>
+        <v>10927</v>
       </c>
       <c r="D216" t="s">
         <v>91</v>
@@ -8400,13 +8400,13 @@
     </row>
     <row r="217" spans="1:27">
       <c r="A217" t="n">
-        <v>6988</v>
+        <v>10928</v>
       </c>
       <c r="B217" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C217" t="n">
-        <v>6988</v>
+        <v>10928</v>
       </c>
       <c r="D217" t="s">
         <v>92</v>
@@ -8435,13 +8435,13 @@
     </row>
     <row r="218" spans="1:27">
       <c r="A218" t="n">
-        <v>6989</v>
+        <v>10929</v>
       </c>
       <c r="B218" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C218" t="n">
-        <v>6989</v>
+        <v>10929</v>
       </c>
       <c r="D218" t="s">
         <v>92</v>
@@ -8470,13 +8470,13 @@
     </row>
     <row r="219" spans="1:27">
       <c r="A219" t="n">
-        <v>6990</v>
+        <v>10930</v>
       </c>
       <c r="B219" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C219" t="n">
-        <v>6990</v>
+        <v>10930</v>
       </c>
       <c r="D219" t="s">
         <v>92</v>
@@ -8505,13 +8505,13 @@
     </row>
     <row r="220" spans="1:27">
       <c r="A220" t="n">
-        <v>6991</v>
+        <v>10931</v>
       </c>
       <c r="B220" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C220" t="n">
-        <v>6991</v>
+        <v>10931</v>
       </c>
       <c r="D220" t="s">
         <v>93</v>
@@ -8540,13 +8540,13 @@
     </row>
     <row r="221" spans="1:27">
       <c r="A221" t="n">
-        <v>6992</v>
+        <v>10932</v>
       </c>
       <c r="B221" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C221" t="n">
-        <v>6992</v>
+        <v>10932</v>
       </c>
       <c r="D221" t="s">
         <v>93</v>
@@ -8575,13 +8575,13 @@
     </row>
     <row r="222" spans="1:27">
       <c r="A222" t="n">
-        <v>6993</v>
+        <v>10933</v>
       </c>
       <c r="B222" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C222" t="n">
-        <v>6993</v>
+        <v>10933</v>
       </c>
       <c r="D222" t="s">
         <v>93</v>
@@ -8610,13 +8610,13 @@
     </row>
     <row r="223" spans="1:27">
       <c r="A223" t="n">
-        <v>6994</v>
+        <v>10934</v>
       </c>
       <c r="B223" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C223" t="n">
-        <v>6994</v>
+        <v>10934</v>
       </c>
       <c r="D223" t="s">
         <v>93</v>
@@ -8645,13 +8645,13 @@
     </row>
     <row r="224" spans="1:27">
       <c r="A224" t="n">
-        <v>6995</v>
+        <v>10935</v>
       </c>
       <c r="B224" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C224" t="n">
-        <v>6995</v>
+        <v>10935</v>
       </c>
       <c r="D224" t="s">
         <v>94</v>
@@ -8680,13 +8680,13 @@
     </row>
     <row r="225" spans="1:27">
       <c r="A225" t="n">
-        <v>6996</v>
+        <v>10936</v>
       </c>
       <c r="B225" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C225" t="n">
-        <v>6996</v>
+        <v>10936</v>
       </c>
       <c r="D225" t="s">
         <v>94</v>
@@ -8715,13 +8715,13 @@
     </row>
     <row r="226" spans="1:27">
       <c r="A226" t="n">
-        <v>6997</v>
+        <v>10937</v>
       </c>
       <c r="B226" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C226" t="n">
-        <v>6997</v>
+        <v>10937</v>
       </c>
       <c r="D226" t="s">
         <v>94</v>
@@ -8750,13 +8750,13 @@
     </row>
     <row r="227" spans="1:27">
       <c r="A227" t="n">
-        <v>6998</v>
+        <v>10938</v>
       </c>
       <c r="B227" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C227" t="n">
-        <v>6998</v>
+        <v>10938</v>
       </c>
       <c r="D227" t="s">
         <v>95</v>
@@ -8785,13 +8785,13 @@
     </row>
     <row r="228" spans="1:27">
       <c r="A228" t="n">
-        <v>6999</v>
+        <v>10939</v>
       </c>
       <c r="B228" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C228" t="n">
-        <v>6999</v>
+        <v>10939</v>
       </c>
       <c r="D228" t="s">
         <v>95</v>
@@ -8820,13 +8820,13 @@
     </row>
     <row r="229" spans="1:27">
       <c r="A229" t="n">
-        <v>7000</v>
+        <v>10940</v>
       </c>
       <c r="B229" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C229" t="n">
-        <v>7000</v>
+        <v>10940</v>
       </c>
       <c r="D229" t="s">
         <v>95</v>
@@ -8855,13 +8855,13 @@
     </row>
     <row r="230" spans="1:27">
       <c r="A230" t="n">
-        <v>7001</v>
+        <v>10941</v>
       </c>
       <c r="B230" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C230" t="n">
-        <v>7001</v>
+        <v>10941</v>
       </c>
       <c r="D230" t="s">
         <v>95</v>
@@ -8890,13 +8890,13 @@
     </row>
     <row r="231" spans="1:27">
       <c r="A231" t="n">
-        <v>7002</v>
+        <v>10942</v>
       </c>
       <c r="B231" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C231" t="n">
-        <v>7002</v>
+        <v>10942</v>
       </c>
       <c r="D231" t="s">
         <v>96</v>
@@ -8925,13 +8925,13 @@
     </row>
     <row r="232" spans="1:27">
       <c r="A232" t="n">
-        <v>7003</v>
+        <v>10943</v>
       </c>
       <c r="B232" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C232" t="n">
-        <v>7003</v>
+        <v>10943</v>
       </c>
       <c r="D232" t="s">
         <v>96</v>
@@ -8960,13 +8960,13 @@
     </row>
     <row r="233" spans="1:27">
       <c r="A233" t="n">
-        <v>7004</v>
+        <v>10944</v>
       </c>
       <c r="B233" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C233" t="n">
-        <v>7004</v>
+        <v>10944</v>
       </c>
       <c r="D233" t="s">
         <v>96</v>
@@ -8995,13 +8995,13 @@
     </row>
     <row r="234" spans="1:27">
       <c r="A234" t="n">
-        <v>7005</v>
+        <v>10945</v>
       </c>
       <c r="B234" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C234" t="n">
-        <v>7005</v>
+        <v>10945</v>
       </c>
       <c r="D234" t="s">
         <v>97</v>
@@ -9030,13 +9030,13 @@
     </row>
     <row r="235" spans="1:27">
       <c r="A235" t="n">
-        <v>7006</v>
+        <v>10946</v>
       </c>
       <c r="B235" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C235" t="n">
-        <v>7006</v>
+        <v>10946</v>
       </c>
       <c r="D235" t="s">
         <v>97</v>
@@ -9065,13 +9065,13 @@
     </row>
     <row r="236" spans="1:27">
       <c r="A236" t="n">
-        <v>7007</v>
+        <v>10947</v>
       </c>
       <c r="B236" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C236" t="n">
-        <v>7007</v>
+        <v>10947</v>
       </c>
       <c r="D236" t="s">
         <v>98</v>
@@ -9100,13 +9100,13 @@
     </row>
     <row r="237" spans="1:27">
       <c r="A237" t="n">
-        <v>7008</v>
+        <v>10948</v>
       </c>
       <c r="B237" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C237" t="n">
-        <v>7008</v>
+        <v>10948</v>
       </c>
       <c r="D237" t="s">
         <v>98</v>
@@ -9135,13 +9135,13 @@
     </row>
     <row r="238" spans="1:27">
       <c r="A238" t="n">
-        <v>7009</v>
+        <v>10949</v>
       </c>
       <c r="B238" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C238" t="n">
-        <v>7009</v>
+        <v>10949</v>
       </c>
       <c r="D238" t="s">
         <v>98</v>
@@ -9170,13 +9170,13 @@
     </row>
     <row r="239" spans="1:27">
       <c r="A239" t="n">
-        <v>7010</v>
+        <v>10950</v>
       </c>
       <c r="B239" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C239" t="n">
-        <v>7010</v>
+        <v>10950</v>
       </c>
       <c r="D239" t="s">
         <v>98</v>
@@ -9205,13 +9205,13 @@
     </row>
     <row r="240" spans="1:27">
       <c r="A240" t="n">
-        <v>7011</v>
+        <v>10951</v>
       </c>
       <c r="B240" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C240" t="n">
-        <v>7011</v>
+        <v>10951</v>
       </c>
       <c r="D240" t="s">
         <v>99</v>
@@ -9240,13 +9240,13 @@
     </row>
     <row r="241" spans="1:27">
       <c r="A241" t="n">
-        <v>7012</v>
+        <v>10952</v>
       </c>
       <c r="B241" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C241" t="n">
-        <v>7012</v>
+        <v>10952</v>
       </c>
       <c r="D241" t="s">
         <v>99</v>
@@ -9275,13 +9275,13 @@
     </row>
     <row r="242" spans="1:27">
       <c r="A242" t="n">
-        <v>7013</v>
+        <v>10953</v>
       </c>
       <c r="B242" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C242" t="n">
-        <v>7013</v>
+        <v>10953</v>
       </c>
       <c r="D242" t="s">
         <v>99</v>
@@ -9310,13 +9310,13 @@
     </row>
     <row r="243" spans="1:27">
       <c r="A243" t="n">
-        <v>7014</v>
+        <v>10954</v>
       </c>
       <c r="B243" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C243" t="n">
-        <v>7014</v>
+        <v>10954</v>
       </c>
       <c r="D243" t="s">
         <v>100</v>
@@ -9345,13 +9345,13 @@
     </row>
     <row r="244" spans="1:27">
       <c r="A244" t="n">
-        <v>7015</v>
+        <v>10955</v>
       </c>
       <c r="B244" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C244" t="n">
-        <v>7015</v>
+        <v>10955</v>
       </c>
       <c r="D244" t="s">
         <v>100</v>
@@ -9380,13 +9380,13 @@
     </row>
     <row r="245" spans="1:27">
       <c r="A245" t="n">
-        <v>7016</v>
+        <v>10956</v>
       </c>
       <c r="B245" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C245" t="n">
-        <v>7016</v>
+        <v>10956</v>
       </c>
       <c r="D245" t="s">
         <v>101</v>
@@ -9415,13 +9415,13 @@
     </row>
     <row r="246" spans="1:27">
       <c r="A246" t="n">
-        <v>7017</v>
+        <v>10957</v>
       </c>
       <c r="B246" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C246" t="n">
-        <v>7017</v>
+        <v>10957</v>
       </c>
       <c r="D246" t="s">
         <v>101</v>
@@ -9450,13 +9450,13 @@
     </row>
     <row r="247" spans="1:27">
       <c r="A247" t="n">
-        <v>7018</v>
+        <v>10958</v>
       </c>
       <c r="B247" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C247" t="n">
-        <v>7018</v>
+        <v>10958</v>
       </c>
       <c r="D247" t="s">
         <v>102</v>
@@ -9485,13 +9485,13 @@
     </row>
     <row r="248" spans="1:27">
       <c r="A248" t="n">
-        <v>7019</v>
+        <v>10959</v>
       </c>
       <c r="B248" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C248" t="n">
-        <v>7019</v>
+        <v>10959</v>
       </c>
       <c r="D248" t="s">
         <v>102</v>
@@ -9520,13 +9520,13 @@
     </row>
     <row r="249" spans="1:27">
       <c r="A249" t="n">
-        <v>7020</v>
+        <v>10960</v>
       </c>
       <c r="B249" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C249" t="n">
-        <v>7020</v>
+        <v>10960</v>
       </c>
       <c r="D249" t="s">
         <v>103</v>
@@ -9555,13 +9555,13 @@
     </row>
     <row r="250" spans="1:27">
       <c r="A250" t="n">
-        <v>7021</v>
+        <v>10961</v>
       </c>
       <c r="B250" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C250" t="n">
-        <v>7021</v>
+        <v>10961</v>
       </c>
       <c r="D250" t="s">
         <v>103</v>
@@ -9590,13 +9590,13 @@
     </row>
     <row r="251" spans="1:27">
       <c r="A251" t="n">
-        <v>7022</v>
+        <v>10962</v>
       </c>
       <c r="B251" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C251" t="n">
-        <v>7022</v>
+        <v>10962</v>
       </c>
       <c r="D251" t="s">
         <v>104</v>
@@ -9625,13 +9625,13 @@
     </row>
     <row r="252" spans="1:27">
       <c r="A252" t="n">
-        <v>7023</v>
+        <v>10963</v>
       </c>
       <c r="B252" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C252" t="n">
-        <v>7023</v>
+        <v>10963</v>
       </c>
       <c r="D252" t="s">
         <v>104</v>
@@ -9660,13 +9660,13 @@
     </row>
     <row r="253" spans="1:27">
       <c r="A253" t="n">
-        <v>7024</v>
+        <v>10964</v>
       </c>
       <c r="B253" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C253" t="n">
-        <v>7024</v>
+        <v>10964</v>
       </c>
       <c r="D253" t="s">
         <v>104</v>
@@ -9695,13 +9695,13 @@
     </row>
     <row r="254" spans="1:27">
       <c r="A254" t="n">
-        <v>7025</v>
+        <v>10965</v>
       </c>
       <c r="B254" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C254" t="n">
-        <v>7025</v>
+        <v>10965</v>
       </c>
       <c r="D254" t="s">
         <v>104</v>
@@ -9730,13 +9730,13 @@
     </row>
     <row r="255" spans="1:27">
       <c r="A255" t="n">
-        <v>7026</v>
+        <v>10966</v>
       </c>
       <c r="B255" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C255" t="n">
-        <v>7026</v>
+        <v>10966</v>
       </c>
       <c r="D255" t="s">
         <v>104</v>
@@ -9765,13 +9765,13 @@
     </row>
     <row r="256" spans="1:27">
       <c r="A256" t="n">
-        <v>7027</v>
+        <v>10967</v>
       </c>
       <c r="B256" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C256" t="n">
-        <v>7027</v>
+        <v>10967</v>
       </c>
       <c r="D256" t="s">
         <v>104</v>
@@ -9800,13 +9800,13 @@
     </row>
     <row r="257" spans="1:27">
       <c r="A257" t="n">
-        <v>7028</v>
+        <v>10968</v>
       </c>
       <c r="B257" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C257" t="n">
-        <v>7028</v>
+        <v>10968</v>
       </c>
       <c r="D257" t="s">
         <v>105</v>
@@ -9835,13 +9835,13 @@
     </row>
     <row r="258" spans="1:27">
       <c r="A258" t="n">
-        <v>7029</v>
+        <v>10969</v>
       </c>
       <c r="B258" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C258" t="n">
-        <v>7029</v>
+        <v>10969</v>
       </c>
       <c r="D258" t="s">
         <v>105</v>
@@ -9870,13 +9870,13 @@
     </row>
     <row r="259" spans="1:27">
       <c r="A259" t="n">
-        <v>7030</v>
+        <v>10970</v>
       </c>
       <c r="B259" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C259" t="n">
-        <v>7030</v>
+        <v>10970</v>
       </c>
       <c r="D259" t="s">
         <v>106</v>
@@ -9905,13 +9905,13 @@
     </row>
     <row r="260" spans="1:27">
       <c r="A260" t="n">
-        <v>7031</v>
+        <v>10971</v>
       </c>
       <c r="B260" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C260" t="n">
-        <v>7031</v>
+        <v>10971</v>
       </c>
       <c r="D260" t="s">
         <v>106</v>
@@ -9940,13 +9940,13 @@
     </row>
     <row r="261" spans="1:27">
       <c r="A261" t="n">
-        <v>7032</v>
+        <v>10972</v>
       </c>
       <c r="B261" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C261" t="n">
-        <v>7032</v>
+        <v>10972</v>
       </c>
       <c r="D261" t="s">
         <v>107</v>
@@ -9975,13 +9975,13 @@
     </row>
     <row r="262" spans="1:27">
       <c r="A262" t="n">
-        <v>7033</v>
+        <v>10973</v>
       </c>
       <c r="B262" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C262" t="n">
-        <v>7033</v>
+        <v>10973</v>
       </c>
       <c r="D262" t="s">
         <v>107</v>
@@ -10010,13 +10010,13 @@
     </row>
     <row r="263" spans="1:27">
       <c r="A263" t="n">
-        <v>7034</v>
+        <v>10974</v>
       </c>
       <c r="B263" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C263" t="n">
-        <v>7034</v>
+        <v>10974</v>
       </c>
       <c r="D263" t="s">
         <v>107</v>
@@ -10045,13 +10045,13 @@
     </row>
     <row r="264" spans="1:27">
       <c r="A264" t="n">
-        <v>7035</v>
+        <v>10975</v>
       </c>
       <c r="B264" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C264" t="n">
-        <v>7035</v>
+        <v>10975</v>
       </c>
       <c r="D264" t="s">
         <v>107</v>
@@ -10080,13 +10080,13 @@
     </row>
     <row r="265" spans="1:27">
       <c r="A265" t="n">
-        <v>7036</v>
+        <v>10976</v>
       </c>
       <c r="B265" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C265" t="n">
-        <v>7036</v>
+        <v>10976</v>
       </c>
       <c r="D265" t="s">
         <v>107</v>
@@ -10115,13 +10115,13 @@
     </row>
     <row r="266" spans="1:27">
       <c r="A266" t="n">
-        <v>7037</v>
+        <v>10977</v>
       </c>
       <c r="B266" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C266" t="n">
-        <v>7037</v>
+        <v>10977</v>
       </c>
       <c r="D266" t="s">
         <v>108</v>
@@ -10150,13 +10150,13 @@
     </row>
     <row r="267" spans="1:27">
       <c r="A267" t="n">
-        <v>7038</v>
+        <v>10978</v>
       </c>
       <c r="B267" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C267" t="n">
-        <v>7038</v>
+        <v>10978</v>
       </c>
       <c r="D267" t="s">
         <v>108</v>
@@ -10185,13 +10185,13 @@
     </row>
     <row r="268" spans="1:27">
       <c r="A268" t="n">
-        <v>7039</v>
+        <v>10979</v>
       </c>
       <c r="B268" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C268" t="n">
-        <v>7039</v>
+        <v>10979</v>
       </c>
       <c r="D268" t="s">
         <v>109</v>
@@ -10220,13 +10220,13 @@
     </row>
     <row r="269" spans="1:27">
       <c r="A269" t="n">
-        <v>7040</v>
+        <v>10980</v>
       </c>
       <c r="B269" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C269" t="n">
-        <v>7040</v>
+        <v>10980</v>
       </c>
       <c r="D269" t="s">
         <v>109</v>
@@ -10255,13 +10255,13 @@
     </row>
     <row r="270" spans="1:27">
       <c r="A270" t="n">
-        <v>7041</v>
+        <v>10981</v>
       </c>
       <c r="B270" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C270" t="n">
-        <v>7041</v>
+        <v>10981</v>
       </c>
       <c r="D270" t="s">
         <v>110</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="271" spans="1:27">
       <c r="A271" t="n">
-        <v>7042</v>
+        <v>10982</v>
       </c>
       <c r="B271" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C271" t="n">
-        <v>7042</v>
+        <v>10982</v>
       </c>
       <c r="D271" t="s">
         <v>110</v>
@@ -10325,13 +10325,13 @@
     </row>
     <row r="272" spans="1:27">
       <c r="A272" t="n">
-        <v>7043</v>
+        <v>10983</v>
       </c>
       <c r="B272" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C272" t="n">
-        <v>7043</v>
+        <v>10983</v>
       </c>
       <c r="D272" t="s">
         <v>110</v>
@@ -10360,13 +10360,13 @@
     </row>
     <row r="273" spans="1:27">
       <c r="A273" t="n">
-        <v>7044</v>
+        <v>10984</v>
       </c>
       <c r="B273" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C273" t="n">
-        <v>7044</v>
+        <v>10984</v>
       </c>
       <c r="D273" t="s">
         <v>111</v>
@@ -10395,13 +10395,13 @@
     </row>
     <row r="274" spans="1:27">
       <c r="A274" t="n">
-        <v>7045</v>
+        <v>10985</v>
       </c>
       <c r="B274" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C274" t="n">
-        <v>7045</v>
+        <v>10985</v>
       </c>
       <c r="D274" t="s">
         <v>111</v>
@@ -10430,13 +10430,13 @@
     </row>
     <row r="275" spans="1:27">
       <c r="A275" t="n">
-        <v>7046</v>
+        <v>10986</v>
       </c>
       <c r="B275" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C275" t="n">
-        <v>7046</v>
+        <v>10986</v>
       </c>
       <c r="D275" t="s">
         <v>112</v>
@@ -10465,13 +10465,13 @@
     </row>
     <row r="276" spans="1:27">
       <c r="A276" t="n">
-        <v>7047</v>
+        <v>10987</v>
       </c>
       <c r="B276" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C276" t="n">
-        <v>7047</v>
+        <v>10987</v>
       </c>
       <c r="D276" t="s">
         <v>112</v>
@@ -10500,13 +10500,13 @@
     </row>
     <row r="277" spans="1:27">
       <c r="A277" t="n">
-        <v>7048</v>
+        <v>10988</v>
       </c>
       <c r="B277" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C277" t="n">
-        <v>7048</v>
+        <v>10988</v>
       </c>
       <c r="D277" t="s">
         <v>113</v>
@@ -10535,13 +10535,13 @@
     </row>
     <row r="278" spans="1:27">
       <c r="A278" t="n">
-        <v>7049</v>
+        <v>10989</v>
       </c>
       <c r="B278" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C278" t="n">
-        <v>7049</v>
+        <v>10989</v>
       </c>
       <c r="D278" t="s">
         <v>113</v>
@@ -10570,13 +10570,13 @@
     </row>
     <row r="279" spans="1:27">
       <c r="A279" t="n">
-        <v>7050</v>
+        <v>10990</v>
       </c>
       <c r="B279" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C279" t="n">
-        <v>7050</v>
+        <v>10990</v>
       </c>
       <c r="D279" t="s">
         <v>113</v>
@@ -10605,13 +10605,13 @@
     </row>
     <row r="280" spans="1:27">
       <c r="A280" t="n">
-        <v>7051</v>
+        <v>10991</v>
       </c>
       <c r="B280" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C280" t="n">
-        <v>7051</v>
+        <v>10991</v>
       </c>
       <c r="D280" t="s">
         <v>114</v>
@@ -10640,13 +10640,13 @@
     </row>
     <row r="281" spans="1:27">
       <c r="A281" t="n">
-        <v>7052</v>
+        <v>10992</v>
       </c>
       <c r="B281" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C281" t="n">
-        <v>7052</v>
+        <v>10992</v>
       </c>
       <c r="D281" t="s">
         <v>114</v>
@@ -10675,13 +10675,13 @@
     </row>
     <row r="282" spans="1:27">
       <c r="A282" t="n">
-        <v>7053</v>
+        <v>10993</v>
       </c>
       <c r="B282" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C282" t="n">
-        <v>7053</v>
+        <v>10993</v>
       </c>
       <c r="D282" t="s">
         <v>114</v>
@@ -10710,13 +10710,13 @@
     </row>
     <row r="283" spans="1:27">
       <c r="A283" t="n">
-        <v>7054</v>
+        <v>10994</v>
       </c>
       <c r="B283" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C283" t="n">
-        <v>7054</v>
+        <v>10994</v>
       </c>
       <c r="D283" t="s">
         <v>115</v>
@@ -10745,13 +10745,13 @@
     </row>
     <row r="284" spans="1:27">
       <c r="A284" t="n">
-        <v>7055</v>
+        <v>10995</v>
       </c>
       <c r="B284" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C284" t="n">
-        <v>7055</v>
+        <v>10995</v>
       </c>
       <c r="D284" t="s">
         <v>115</v>
@@ -10780,13 +10780,13 @@
     </row>
     <row r="285" spans="1:27">
       <c r="A285" t="n">
-        <v>7056</v>
+        <v>10996</v>
       </c>
       <c r="B285" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C285" t="n">
-        <v>7056</v>
+        <v>10996</v>
       </c>
       <c r="D285" t="s">
         <v>116</v>
@@ -10815,13 +10815,13 @@
     </row>
     <row r="286" spans="1:27">
       <c r="A286" t="n">
-        <v>7057</v>
+        <v>10997</v>
       </c>
       <c r="B286" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C286" t="n">
-        <v>7057</v>
+        <v>10997</v>
       </c>
       <c r="D286" t="s">
         <v>116</v>
@@ -10850,13 +10850,13 @@
     </row>
     <row r="287" spans="1:27">
       <c r="A287" t="n">
-        <v>7058</v>
+        <v>10998</v>
       </c>
       <c r="B287" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C287" t="n">
-        <v>7058</v>
+        <v>10998</v>
       </c>
       <c r="D287" t="s">
         <v>116</v>
@@ -10885,13 +10885,13 @@
     </row>
     <row r="288" spans="1:27">
       <c r="A288" t="n">
-        <v>7059</v>
+        <v>10999</v>
       </c>
       <c r="B288" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C288" t="n">
-        <v>7059</v>
+        <v>10999</v>
       </c>
       <c r="D288" t="s">
         <v>116</v>
@@ -10920,13 +10920,13 @@
     </row>
     <row r="289" spans="1:27">
       <c r="A289" t="n">
-        <v>7060</v>
+        <v>11000</v>
       </c>
       <c r="B289" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C289" t="n">
-        <v>7060</v>
+        <v>11000</v>
       </c>
       <c r="D289" t="s">
         <v>116</v>
@@ -10955,13 +10955,13 @@
     </row>
     <row r="290" spans="1:27">
       <c r="A290" t="n">
-        <v>7061</v>
+        <v>11001</v>
       </c>
       <c r="B290" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C290" t="n">
-        <v>7061</v>
+        <v>11001</v>
       </c>
       <c r="D290" t="s">
         <v>117</v>
@@ -10990,13 +10990,13 @@
     </row>
     <row r="291" spans="1:27">
       <c r="A291" t="n">
-        <v>7062</v>
+        <v>11002</v>
       </c>
       <c r="B291" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C291" t="n">
-        <v>7062</v>
+        <v>11002</v>
       </c>
       <c r="D291" t="s">
         <v>117</v>
@@ -11025,13 +11025,13 @@
     </row>
     <row r="292" spans="1:27">
       <c r="A292" t="n">
-        <v>7063</v>
+        <v>11003</v>
       </c>
       <c r="B292" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C292" t="n">
-        <v>7063</v>
+        <v>11003</v>
       </c>
       <c r="D292" t="s">
         <v>118</v>
@@ -11060,13 +11060,13 @@
     </row>
     <row r="293" spans="1:27">
       <c r="A293" t="n">
-        <v>7064</v>
+        <v>11004</v>
       </c>
       <c r="B293" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C293" t="n">
-        <v>7064</v>
+        <v>11004</v>
       </c>
       <c r="D293" t="s">
         <v>118</v>
@@ -11095,13 +11095,13 @@
     </row>
     <row r="294" spans="1:27">
       <c r="A294" t="n">
-        <v>7065</v>
+        <v>11005</v>
       </c>
       <c r="B294" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C294" t="n">
-        <v>7065</v>
+        <v>11005</v>
       </c>
       <c r="D294" t="s">
         <v>119</v>
@@ -11130,13 +11130,13 @@
     </row>
     <row r="295" spans="1:27">
       <c r="A295" t="n">
-        <v>7066</v>
+        <v>11006</v>
       </c>
       <c r="B295" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C295" t="n">
-        <v>7066</v>
+        <v>11006</v>
       </c>
       <c r="D295" t="s">
         <v>119</v>
@@ -11165,13 +11165,13 @@
     </row>
     <row r="296" spans="1:27">
       <c r="A296" t="n">
-        <v>7067</v>
+        <v>11007</v>
       </c>
       <c r="B296" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C296" t="n">
-        <v>7067</v>
+        <v>11007</v>
       </c>
       <c r="D296" t="s">
         <v>120</v>
@@ -11200,13 +11200,13 @@
     </row>
     <row r="297" spans="1:27">
       <c r="A297" t="n">
-        <v>7068</v>
+        <v>11008</v>
       </c>
       <c r="B297" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C297" t="n">
-        <v>7068</v>
+        <v>11008</v>
       </c>
       <c r="D297" t="s">
         <v>120</v>
@@ -11235,13 +11235,13 @@
     </row>
     <row r="298" spans="1:27">
       <c r="A298" t="n">
-        <v>7069</v>
+        <v>11009</v>
       </c>
       <c r="B298" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C298" t="n">
-        <v>7069</v>
+        <v>11009</v>
       </c>
       <c r="D298" t="s">
         <v>120</v>
@@ -11270,13 +11270,13 @@
     </row>
     <row r="299" spans="1:27">
       <c r="A299" t="n">
-        <v>7070</v>
+        <v>11010</v>
       </c>
       <c r="B299" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C299" t="n">
-        <v>7070</v>
+        <v>11010</v>
       </c>
       <c r="D299" t="s">
         <v>120</v>
@@ -11305,13 +11305,13 @@
     </row>
     <row r="300" spans="1:27">
       <c r="A300" t="n">
-        <v>7071</v>
+        <v>11011</v>
       </c>
       <c r="B300" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C300" t="n">
-        <v>7071</v>
+        <v>11011</v>
       </c>
       <c r="D300" t="s">
         <v>120</v>
@@ -11340,13 +11340,13 @@
     </row>
     <row r="301" spans="1:27">
       <c r="A301" t="n">
-        <v>7072</v>
+        <v>11012</v>
       </c>
       <c r="B301" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C301" t="n">
-        <v>7072</v>
+        <v>11012</v>
       </c>
       <c r="D301" t="s">
         <v>120</v>
@@ -11375,13 +11375,13 @@
     </row>
     <row r="302" spans="1:27">
       <c r="A302" t="n">
-        <v>7073</v>
+        <v>11013</v>
       </c>
       <c r="B302" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C302" t="n">
-        <v>7073</v>
+        <v>11013</v>
       </c>
       <c r="D302" t="s">
         <v>121</v>
@@ -11410,13 +11410,13 @@
     </row>
     <row r="303" spans="1:27">
       <c r="A303" t="n">
-        <v>7074</v>
+        <v>11014</v>
       </c>
       <c r="B303" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C303" t="n">
-        <v>7074</v>
+        <v>11014</v>
       </c>
       <c r="D303" t="s">
         <v>121</v>
@@ -11445,13 +11445,13 @@
     </row>
     <row r="304" spans="1:27">
       <c r="A304" t="n">
-        <v>7075</v>
+        <v>11015</v>
       </c>
       <c r="B304" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C304" t="n">
-        <v>7075</v>
+        <v>11015</v>
       </c>
       <c r="D304" t="s">
         <v>121</v>
@@ -11480,13 +11480,13 @@
     </row>
     <row r="305" spans="1:27">
       <c r="A305" t="n">
-        <v>7076</v>
+        <v>11016</v>
       </c>
       <c r="B305" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C305" t="n">
-        <v>7076</v>
+        <v>11016</v>
       </c>
       <c r="D305" t="s">
         <v>122</v>
@@ -11515,13 +11515,13 @@
     </row>
     <row r="306" spans="1:27">
       <c r="A306" t="n">
-        <v>7077</v>
+        <v>11017</v>
       </c>
       <c r="B306" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C306" t="n">
-        <v>7077</v>
+        <v>11017</v>
       </c>
       <c r="D306" t="s">
         <v>122</v>
@@ -11550,13 +11550,13 @@
     </row>
     <row r="307" spans="1:27">
       <c r="A307" t="n">
-        <v>7078</v>
+        <v>11018</v>
       </c>
       <c r="B307" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C307" t="n">
-        <v>7078</v>
+        <v>11018</v>
       </c>
       <c r="D307" t="s">
         <v>123</v>
@@ -11585,13 +11585,13 @@
     </row>
     <row r="308" spans="1:27">
       <c r="A308" t="n">
-        <v>7079</v>
+        <v>11019</v>
       </c>
       <c r="B308" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C308" t="n">
-        <v>7079</v>
+        <v>11019</v>
       </c>
       <c r="D308" t="s">
         <v>123</v>
@@ -11620,13 +11620,13 @@
     </row>
     <row r="309" spans="1:27">
       <c r="A309" t="n">
-        <v>7080</v>
+        <v>11020</v>
       </c>
       <c r="B309" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C309" t="n">
-        <v>7080</v>
+        <v>11020</v>
       </c>
       <c r="D309" t="s">
         <v>124</v>
@@ -11655,13 +11655,13 @@
     </row>
     <row r="310" spans="1:27">
       <c r="A310" t="n">
-        <v>7081</v>
+        <v>11021</v>
       </c>
       <c r="B310" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C310" t="n">
-        <v>7081</v>
+        <v>11021</v>
       </c>
       <c r="D310" t="s">
         <v>124</v>
@@ -11690,13 +11690,13 @@
     </row>
     <row r="311" spans="1:27">
       <c r="A311" t="n">
-        <v>7082</v>
+        <v>11022</v>
       </c>
       <c r="B311" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C311" t="n">
-        <v>7082</v>
+        <v>11022</v>
       </c>
       <c r="D311" t="s">
         <v>124</v>
@@ -11725,13 +11725,13 @@
     </row>
     <row r="312" spans="1:27">
       <c r="A312" t="n">
-        <v>7083</v>
+        <v>11023</v>
       </c>
       <c r="B312" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C312" t="n">
-        <v>7083</v>
+        <v>11023</v>
       </c>
       <c r="D312" t="s">
         <v>125</v>
@@ -11760,13 +11760,13 @@
     </row>
     <row r="313" spans="1:27">
       <c r="A313" t="n">
-        <v>7084</v>
+        <v>11024</v>
       </c>
       <c r="B313" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C313" t="n">
-        <v>7084</v>
+        <v>11024</v>
       </c>
       <c r="D313" t="s">
         <v>125</v>
@@ -11795,13 +11795,13 @@
     </row>
     <row r="314" spans="1:27">
       <c r="A314" t="n">
-        <v>7085</v>
+        <v>11025</v>
       </c>
       <c r="B314" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C314" t="n">
-        <v>7085</v>
+        <v>11025</v>
       </c>
       <c r="D314" t="s">
         <v>126</v>
@@ -11830,13 +11830,13 @@
     </row>
     <row r="315" spans="1:27">
       <c r="A315" t="n">
-        <v>7086</v>
+        <v>11026</v>
       </c>
       <c r="B315" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C315" t="n">
-        <v>7086</v>
+        <v>11026</v>
       </c>
       <c r="D315" t="s">
         <v>126</v>
@@ -11865,13 +11865,13 @@
     </row>
     <row r="316" spans="1:27">
       <c r="A316" t="n">
-        <v>7087</v>
+        <v>11027</v>
       </c>
       <c r="B316" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C316" t="n">
-        <v>7087</v>
+        <v>11027</v>
       </c>
       <c r="D316" t="s">
         <v>127</v>
@@ -11900,13 +11900,13 @@
     </row>
     <row r="317" spans="1:27">
       <c r="A317" t="n">
-        <v>7088</v>
+        <v>11028</v>
       </c>
       <c r="B317" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C317" t="n">
-        <v>7088</v>
+        <v>11028</v>
       </c>
       <c r="D317" t="s">
         <v>127</v>
@@ -11935,13 +11935,13 @@
     </row>
     <row r="318" spans="1:27">
       <c r="A318" t="n">
-        <v>7089</v>
+        <v>11029</v>
       </c>
       <c r="B318" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C318" t="n">
-        <v>7089</v>
+        <v>11029</v>
       </c>
       <c r="D318" t="s">
         <v>128</v>
@@ -11970,13 +11970,13 @@
     </row>
     <row r="319" spans="1:27">
       <c r="A319" t="n">
-        <v>7090</v>
+        <v>11030</v>
       </c>
       <c r="B319" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C319" t="n">
-        <v>7090</v>
+        <v>11030</v>
       </c>
       <c r="D319" t="s">
         <v>128</v>
@@ -12005,13 +12005,13 @@
     </row>
     <row r="320" spans="1:27">
       <c r="A320" t="n">
-        <v>7091</v>
+        <v>11031</v>
       </c>
       <c r="B320" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C320" t="n">
-        <v>7091</v>
+        <v>11031</v>
       </c>
       <c r="D320" t="s">
         <v>128</v>
@@ -12040,13 +12040,13 @@
     </row>
     <row r="321" spans="1:27">
       <c r="A321" t="n">
-        <v>7092</v>
+        <v>11032</v>
       </c>
       <c r="B321" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C321" t="n">
-        <v>7092</v>
+        <v>11032</v>
       </c>
       <c r="D321" t="s">
         <v>128</v>
@@ -12075,13 +12075,13 @@
     </row>
     <row r="322" spans="1:27">
       <c r="A322" t="n">
-        <v>7093</v>
+        <v>11033</v>
       </c>
       <c r="B322" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C322" t="n">
-        <v>7093</v>
+        <v>11033</v>
       </c>
       <c r="D322" t="s">
         <v>128</v>
@@ -12110,13 +12110,13 @@
     </row>
     <row r="323" spans="1:27">
       <c r="A323" t="n">
-        <v>7094</v>
+        <v>11034</v>
       </c>
       <c r="B323" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C323" t="n">
-        <v>7094</v>
+        <v>11034</v>
       </c>
       <c r="D323" t="s">
         <v>128</v>
@@ -12145,13 +12145,13 @@
     </row>
     <row r="324" spans="1:27">
       <c r="A324" t="n">
-        <v>7095</v>
+        <v>11035</v>
       </c>
       <c r="B324" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C324" t="n">
-        <v>7095</v>
+        <v>11035</v>
       </c>
       <c r="D324" t="s">
         <v>128</v>
@@ -12180,13 +12180,13 @@
     </row>
     <row r="325" spans="1:27">
       <c r="A325" t="n">
-        <v>7096</v>
+        <v>11036</v>
       </c>
       <c r="B325" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C325" t="n">
-        <v>7096</v>
+        <v>11036</v>
       </c>
       <c r="D325" t="s">
         <v>128</v>
@@ -12215,13 +12215,13 @@
     </row>
     <row r="326" spans="1:27">
       <c r="A326" t="n">
-        <v>7097</v>
+        <v>11037</v>
       </c>
       <c r="B326" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C326" t="n">
-        <v>7097</v>
+        <v>11037</v>
       </c>
       <c r="D326" t="s">
         <v>128</v>
@@ -12250,13 +12250,13 @@
     </row>
     <row r="327" spans="1:27">
       <c r="A327" t="n">
-        <v>7098</v>
+        <v>11038</v>
       </c>
       <c r="B327" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C327" t="n">
-        <v>7098</v>
+        <v>11038</v>
       </c>
       <c r="D327" t="s">
         <v>129</v>
@@ -12285,13 +12285,13 @@
     </row>
     <row r="328" spans="1:27">
       <c r="A328" t="n">
-        <v>7099</v>
+        <v>11039</v>
       </c>
       <c r="B328" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C328" t="n">
-        <v>7099</v>
+        <v>11039</v>
       </c>
       <c r="D328" t="s">
         <v>129</v>
@@ -12320,13 +12320,13 @@
     </row>
     <row r="329" spans="1:27">
       <c r="A329" t="n">
-        <v>7100</v>
+        <v>11040</v>
       </c>
       <c r="B329" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C329" t="n">
-        <v>7100</v>
+        <v>11040</v>
       </c>
       <c r="D329" t="s">
         <v>130</v>
@@ -12355,13 +12355,13 @@
     </row>
     <row r="330" spans="1:27">
       <c r="A330" t="n">
-        <v>7101</v>
+        <v>11041</v>
       </c>
       <c r="B330" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C330" t="n">
-        <v>7101</v>
+        <v>11041</v>
       </c>
       <c r="D330" t="s">
         <v>130</v>
@@ -12390,13 +12390,13 @@
     </row>
     <row r="331" spans="1:27">
       <c r="A331" t="n">
-        <v>7102</v>
+        <v>11042</v>
       </c>
       <c r="B331" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C331" t="n">
-        <v>7102</v>
+        <v>11042</v>
       </c>
       <c r="D331" t="s">
         <v>130</v>
@@ -12425,13 +12425,13 @@
     </row>
     <row r="332" spans="1:27">
       <c r="A332" t="n">
-        <v>7103</v>
+        <v>11043</v>
       </c>
       <c r="B332" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C332" t="n">
-        <v>7103</v>
+        <v>11043</v>
       </c>
       <c r="D332" t="s">
         <v>131</v>
@@ -12460,13 +12460,13 @@
     </row>
     <row r="333" spans="1:27">
       <c r="A333" t="n">
-        <v>7104</v>
+        <v>11044</v>
       </c>
       <c r="B333" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C333" t="n">
-        <v>7104</v>
+        <v>11044</v>
       </c>
       <c r="D333" t="s">
         <v>131</v>
@@ -12495,13 +12495,13 @@
     </row>
     <row r="334" spans="1:27">
       <c r="A334" t="n">
-        <v>7105</v>
+        <v>11045</v>
       </c>
       <c r="B334" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C334" t="n">
-        <v>7105</v>
+        <v>11045</v>
       </c>
       <c r="D334" t="s">
         <v>132</v>
@@ -12530,13 +12530,13 @@
     </row>
     <row r="335" spans="1:27">
       <c r="A335" t="n">
-        <v>7106</v>
+        <v>11046</v>
       </c>
       <c r="B335" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C335" t="n">
-        <v>7106</v>
+        <v>11046</v>
       </c>
       <c r="D335" t="s">
         <v>132</v>
@@ -12565,13 +12565,13 @@
     </row>
     <row r="336" spans="1:27">
       <c r="A336" t="n">
-        <v>7107</v>
+        <v>11047</v>
       </c>
       <c r="B336" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C336" t="n">
-        <v>7107</v>
+        <v>11047</v>
       </c>
       <c r="D336" t="s">
         <v>133</v>
@@ -12600,13 +12600,13 @@
     </row>
     <row r="337" spans="1:27">
       <c r="A337" t="n">
-        <v>7108</v>
+        <v>11048</v>
       </c>
       <c r="B337" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C337" t="n">
-        <v>7108</v>
+        <v>11048</v>
       </c>
       <c r="D337" t="s">
         <v>133</v>
@@ -12635,13 +12635,13 @@
     </row>
     <row r="338" spans="1:27">
       <c r="A338" t="n">
-        <v>7109</v>
+        <v>11049</v>
       </c>
       <c r="B338" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C338" t="n">
-        <v>7109</v>
+        <v>11049</v>
       </c>
       <c r="D338" t="s">
         <v>133</v>
@@ -12670,13 +12670,13 @@
     </row>
     <row r="339" spans="1:27">
       <c r="A339" t="n">
-        <v>7110</v>
+        <v>11050</v>
       </c>
       <c r="B339" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C339" t="n">
-        <v>7110</v>
+        <v>11050</v>
       </c>
       <c r="D339" t="s">
         <v>133</v>
@@ -12705,13 +12705,13 @@
     </row>
     <row r="340" spans="1:27">
       <c r="A340" t="n">
-        <v>7111</v>
+        <v>11051</v>
       </c>
       <c r="B340" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C340" t="n">
-        <v>7111</v>
+        <v>11051</v>
       </c>
       <c r="D340" t="s">
         <v>133</v>
@@ -12740,13 +12740,13 @@
     </row>
     <row r="341" spans="1:27">
       <c r="A341" t="n">
-        <v>7112</v>
+        <v>11052</v>
       </c>
       <c r="B341" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C341" t="n">
-        <v>7112</v>
+        <v>11052</v>
       </c>
       <c r="D341" t="s">
         <v>133</v>
@@ -12775,13 +12775,13 @@
     </row>
     <row r="342" spans="1:27">
       <c r="A342" t="n">
-        <v>7113</v>
+        <v>11053</v>
       </c>
       <c r="B342" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C342" t="n">
-        <v>7113</v>
+        <v>11053</v>
       </c>
       <c r="D342" t="s">
         <v>133</v>
@@ -12810,13 +12810,13 @@
     </row>
     <row r="343" spans="1:27">
       <c r="A343" t="n">
-        <v>7114</v>
+        <v>11054</v>
       </c>
       <c r="B343" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C343" t="n">
-        <v>7114</v>
+        <v>11054</v>
       </c>
       <c r="D343" t="s">
         <v>133</v>
@@ -12845,13 +12845,13 @@
     </row>
     <row r="344" spans="1:27">
       <c r="A344" t="n">
-        <v>7115</v>
+        <v>11055</v>
       </c>
       <c r="B344" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C344" t="n">
-        <v>7115</v>
+        <v>11055</v>
       </c>
       <c r="D344" t="s">
         <v>133</v>
@@ -12880,13 +12880,13 @@
     </row>
     <row r="345" spans="1:27">
       <c r="A345" t="n">
-        <v>7116</v>
+        <v>11056</v>
       </c>
       <c r="B345" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C345" t="n">
-        <v>7116</v>
+        <v>11056</v>
       </c>
       <c r="D345" t="s">
         <v>133</v>
@@ -12915,13 +12915,13 @@
     </row>
     <row r="346" spans="1:27">
       <c r="A346" t="n">
-        <v>7117</v>
+        <v>11057</v>
       </c>
       <c r="B346" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C346" t="n">
-        <v>7117</v>
+        <v>11057</v>
       </c>
       <c r="D346" t="s">
         <v>133</v>
@@ -12950,13 +12950,13 @@
     </row>
     <row r="347" spans="1:27">
       <c r="A347" t="n">
-        <v>7118</v>
+        <v>11058</v>
       </c>
       <c r="B347" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C347" t="n">
-        <v>7118</v>
+        <v>11058</v>
       </c>
       <c r="D347" t="s">
         <v>133</v>
@@ -12985,13 +12985,13 @@
     </row>
     <row r="348" spans="1:27">
       <c r="A348" t="n">
-        <v>7119</v>
+        <v>11059</v>
       </c>
       <c r="B348" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C348" t="n">
-        <v>7119</v>
+        <v>11059</v>
       </c>
       <c r="D348" t="s">
         <v>133</v>
@@ -13020,13 +13020,13 @@
     </row>
     <row r="349" spans="1:27">
       <c r="A349" t="n">
-        <v>7120</v>
+        <v>11060</v>
       </c>
       <c r="B349" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C349" t="n">
-        <v>7120</v>
+        <v>11060</v>
       </c>
       <c r="D349" t="s">
         <v>134</v>
@@ -13055,13 +13055,13 @@
     </row>
     <row r="350" spans="1:27">
       <c r="A350" t="n">
-        <v>7121</v>
+        <v>11061</v>
       </c>
       <c r="B350" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C350" t="n">
-        <v>7121</v>
+        <v>11061</v>
       </c>
       <c r="D350" t="s">
         <v>134</v>
@@ -13090,13 +13090,13 @@
     </row>
     <row r="351" spans="1:27">
       <c r="A351" t="n">
-        <v>7122</v>
+        <v>11062</v>
       </c>
       <c r="B351" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C351" t="n">
-        <v>7122</v>
+        <v>11062</v>
       </c>
       <c r="D351" t="s">
         <v>134</v>
@@ -13125,13 +13125,13 @@
     </row>
     <row r="352" spans="1:27">
       <c r="A352" t="n">
-        <v>7123</v>
+        <v>11063</v>
       </c>
       <c r="B352" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C352" t="n">
-        <v>7123</v>
+        <v>11063</v>
       </c>
       <c r="D352" t="s">
         <v>134</v>
@@ -13160,13 +13160,13 @@
     </row>
     <row r="353" spans="1:27">
       <c r="A353" t="n">
-        <v>7124</v>
+        <v>11064</v>
       </c>
       <c r="B353" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C353" t="n">
-        <v>7124</v>
+        <v>11064</v>
       </c>
       <c r="D353" t="s">
         <v>134</v>
@@ -13195,13 +13195,13 @@
     </row>
     <row r="354" spans="1:27">
       <c r="A354" t="n">
-        <v>7125</v>
+        <v>11065</v>
       </c>
       <c r="B354" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C354" t="n">
-        <v>7125</v>
+        <v>11065</v>
       </c>
       <c r="D354" t="s">
         <v>134</v>
@@ -13230,13 +13230,13 @@
     </row>
     <row r="355" spans="1:27">
       <c r="A355" t="n">
-        <v>7126</v>
+        <v>11066</v>
       </c>
       <c r="B355" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C355" t="n">
-        <v>7126</v>
+        <v>11066</v>
       </c>
       <c r="D355" t="s">
         <v>134</v>
@@ -13265,13 +13265,13 @@
     </row>
     <row r="356" spans="1:27">
       <c r="A356" t="n">
-        <v>7127</v>
+        <v>11067</v>
       </c>
       <c r="B356" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C356" t="n">
-        <v>7127</v>
+        <v>11067</v>
       </c>
       <c r="D356" t="s">
         <v>135</v>
@@ -13300,13 +13300,13 @@
     </row>
     <row r="357" spans="1:27">
       <c r="A357" t="n">
-        <v>7128</v>
+        <v>11068</v>
       </c>
       <c r="B357" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C357" t="n">
-        <v>7128</v>
+        <v>11068</v>
       </c>
       <c r="D357" t="s">
         <v>135</v>
@@ -13335,13 +13335,13 @@
     </row>
     <row r="358" spans="1:27">
       <c r="A358" t="n">
-        <v>7129</v>
+        <v>11069</v>
       </c>
       <c r="B358" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C358" t="n">
-        <v>7129</v>
+        <v>11069</v>
       </c>
       <c r="D358" t="s">
         <v>136</v>
@@ -13370,13 +13370,13 @@
     </row>
     <row r="359" spans="1:27">
       <c r="A359" t="n">
-        <v>7130</v>
+        <v>11070</v>
       </c>
       <c r="B359" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C359" t="n">
-        <v>7130</v>
+        <v>11070</v>
       </c>
       <c r="D359" t="s">
         <v>136</v>
@@ -13405,13 +13405,13 @@
     </row>
     <row r="360" spans="1:27">
       <c r="A360" t="n">
-        <v>7131</v>
+        <v>11071</v>
       </c>
       <c r="B360" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C360" t="n">
-        <v>7131</v>
+        <v>11071</v>
       </c>
       <c r="D360" t="s">
         <v>136</v>
@@ -13440,13 +13440,13 @@
     </row>
     <row r="361" spans="1:27">
       <c r="A361" t="n">
-        <v>7132</v>
+        <v>11072</v>
       </c>
       <c r="B361" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C361" t="n">
-        <v>7132</v>
+        <v>11072</v>
       </c>
       <c r="D361" t="s">
         <v>137</v>
@@ -13475,13 +13475,13 @@
     </row>
     <row r="362" spans="1:27">
       <c r="A362" t="n">
-        <v>7133</v>
+        <v>11073</v>
       </c>
       <c r="B362" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C362" t="n">
-        <v>7133</v>
+        <v>11073</v>
       </c>
       <c r="D362" t="s">
         <v>137</v>
@@ -13510,13 +13510,13 @@
     </row>
     <row r="363" spans="1:27">
       <c r="A363" t="n">
-        <v>7134</v>
+        <v>11074</v>
       </c>
       <c r="B363" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C363" t="n">
-        <v>7134</v>
+        <v>11074</v>
       </c>
       <c r="D363" t="s">
         <v>138</v>
@@ -13545,13 +13545,13 @@
     </row>
     <row r="364" spans="1:27">
       <c r="A364" t="n">
-        <v>7135</v>
+        <v>11075</v>
       </c>
       <c r="B364" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C364" t="n">
-        <v>7135</v>
+        <v>11075</v>
       </c>
       <c r="D364" t="s">
         <v>138</v>
@@ -13580,13 +13580,13 @@
     </row>
     <row r="365" spans="1:27">
       <c r="A365" t="n">
-        <v>7136</v>
+        <v>11076</v>
       </c>
       <c r="B365" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C365" t="n">
-        <v>7136</v>
+        <v>11076</v>
       </c>
       <c r="D365" t="s">
         <v>138</v>
@@ -13615,13 +13615,13 @@
     </row>
     <row r="366" spans="1:27">
       <c r="A366" t="n">
-        <v>7137</v>
+        <v>11077</v>
       </c>
       <c r="B366" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C366" t="n">
-        <v>7137</v>
+        <v>11077</v>
       </c>
       <c r="D366" t="s">
         <v>138</v>
@@ -13650,13 +13650,13 @@
     </row>
     <row r="367" spans="1:27">
       <c r="A367" t="n">
-        <v>7138</v>
+        <v>11078</v>
       </c>
       <c r="B367" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C367" t="n">
-        <v>7138</v>
+        <v>11078</v>
       </c>
       <c r="D367" t="s">
         <v>138</v>
@@ -13685,13 +13685,13 @@
     </row>
     <row r="368" spans="1:27">
       <c r="A368" t="n">
-        <v>7139</v>
+        <v>11079</v>
       </c>
       <c r="B368" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C368" t="n">
-        <v>7139</v>
+        <v>11079</v>
       </c>
       <c r="D368" t="s">
         <v>138</v>
@@ -13720,13 +13720,13 @@
     </row>
     <row r="369" spans="1:27">
       <c r="A369" t="n">
-        <v>7140</v>
+        <v>11080</v>
       </c>
       <c r="B369" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C369" t="n">
-        <v>7140</v>
+        <v>11080</v>
       </c>
       <c r="D369" t="s">
         <v>138</v>
@@ -13755,13 +13755,13 @@
     </row>
     <row r="370" spans="1:27">
       <c r="A370" t="n">
-        <v>7141</v>
+        <v>11081</v>
       </c>
       <c r="B370" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C370" t="n">
-        <v>7141</v>
+        <v>11081</v>
       </c>
       <c r="D370" t="s">
         <v>138</v>
@@ -13790,13 +13790,13 @@
     </row>
     <row r="371" spans="1:27">
       <c r="A371" t="n">
-        <v>7142</v>
+        <v>11082</v>
       </c>
       <c r="B371" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C371" t="n">
-        <v>7142</v>
+        <v>11082</v>
       </c>
       <c r="D371" t="s">
         <v>139</v>
@@ -13825,13 +13825,13 @@
     </row>
     <row r="372" spans="1:27">
       <c r="A372" t="n">
-        <v>7143</v>
+        <v>11083</v>
       </c>
       <c r="B372" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C372" t="n">
-        <v>7143</v>
+        <v>11083</v>
       </c>
       <c r="D372" t="s">
         <v>139</v>
@@ -13860,13 +13860,13 @@
     </row>
     <row r="373" spans="1:27">
       <c r="A373" t="n">
-        <v>7144</v>
+        <v>11084</v>
       </c>
       <c r="B373" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C373" t="n">
-        <v>7144</v>
+        <v>11084</v>
       </c>
       <c r="D373" t="s">
         <v>140</v>
@@ -13895,13 +13895,13 @@
     </row>
     <row r="374" spans="1:27">
       <c r="A374" t="n">
-        <v>7145</v>
+        <v>11085</v>
       </c>
       <c r="B374" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C374" t="n">
-        <v>7145</v>
+        <v>11085</v>
       </c>
       <c r="D374" t="s">
         <v>140</v>
@@ -13930,13 +13930,13 @@
     </row>
     <row r="375" spans="1:27">
       <c r="A375" t="n">
-        <v>7146</v>
+        <v>11086</v>
       </c>
       <c r="B375" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C375" t="n">
-        <v>7146</v>
+        <v>11086</v>
       </c>
       <c r="D375" t="s">
         <v>140</v>
@@ -13965,13 +13965,13 @@
     </row>
     <row r="376" spans="1:27">
       <c r="A376" t="n">
-        <v>7147</v>
+        <v>11087</v>
       </c>
       <c r="B376" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C376" t="n">
-        <v>7147</v>
+        <v>11087</v>
       </c>
       <c r="D376" t="s">
         <v>141</v>
@@ -14000,13 +14000,13 @@
     </row>
     <row r="377" spans="1:27">
       <c r="A377" t="n">
-        <v>7148</v>
+        <v>11088</v>
       </c>
       <c r="B377" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C377" t="n">
-        <v>7148</v>
+        <v>11088</v>
       </c>
       <c r="D377" t="s">
         <v>141</v>
@@ -14035,13 +14035,13 @@
     </row>
     <row r="378" spans="1:27">
       <c r="A378" t="n">
-        <v>7149</v>
+        <v>11089</v>
       </c>
       <c r="B378" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C378" t="n">
-        <v>7149</v>
+        <v>11089</v>
       </c>
       <c r="D378" t="s">
         <v>142</v>
@@ -14070,13 +14070,13 @@
     </row>
     <row r="379" spans="1:27">
       <c r="A379" t="n">
-        <v>7150</v>
+        <v>11090</v>
       </c>
       <c r="B379" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C379" t="n">
-        <v>7150</v>
+        <v>11090</v>
       </c>
       <c r="D379" t="s">
         <v>142</v>
@@ -14105,13 +14105,13 @@
     </row>
     <row r="380" spans="1:27">
       <c r="A380" t="n">
-        <v>7151</v>
+        <v>11091</v>
       </c>
       <c r="B380" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C380" t="n">
-        <v>7151</v>
+        <v>11091</v>
       </c>
       <c r="D380" t="s">
         <v>142</v>
@@ -14140,13 +14140,13 @@
     </row>
     <row r="381" spans="1:27">
       <c r="A381" t="n">
-        <v>7152</v>
+        <v>11092</v>
       </c>
       <c r="B381" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C381" t="n">
-        <v>7152</v>
+        <v>11092</v>
       </c>
       <c r="D381" t="s">
         <v>142</v>
@@ -14175,13 +14175,13 @@
     </row>
     <row r="382" spans="1:27">
       <c r="A382" t="n">
-        <v>7153</v>
+        <v>11093</v>
       </c>
       <c r="B382" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C382" t="n">
-        <v>7153</v>
+        <v>11093</v>
       </c>
       <c r="D382" t="s">
         <v>142</v>
@@ -14210,13 +14210,13 @@
     </row>
     <row r="383" spans="1:27">
       <c r="A383" t="n">
-        <v>7154</v>
+        <v>11094</v>
       </c>
       <c r="B383" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C383" t="n">
-        <v>7154</v>
+        <v>11094</v>
       </c>
       <c r="D383" t="s">
         <v>142</v>
@@ -14245,13 +14245,13 @@
     </row>
     <row r="384" spans="1:27">
       <c r="A384" t="n">
-        <v>7155</v>
+        <v>11095</v>
       </c>
       <c r="B384" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C384" t="n">
-        <v>7155</v>
+        <v>11095</v>
       </c>
       <c r="D384" t="s">
         <v>142</v>
@@ -14280,13 +14280,13 @@
     </row>
     <row r="385" spans="1:27">
       <c r="A385" t="n">
-        <v>7156</v>
+        <v>11096</v>
       </c>
       <c r="B385" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C385" t="n">
-        <v>7156</v>
+        <v>11096</v>
       </c>
       <c r="D385" t="s">
         <v>142</v>
@@ -14315,13 +14315,13 @@
     </row>
     <row r="386" spans="1:27">
       <c r="A386" t="n">
-        <v>7157</v>
+        <v>11097</v>
       </c>
       <c r="B386" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C386" t="n">
-        <v>7157</v>
+        <v>11097</v>
       </c>
       <c r="D386" t="s">
         <v>142</v>
@@ -14350,13 +14350,13 @@
     </row>
     <row r="387" spans="1:27">
       <c r="A387" t="n">
-        <v>7158</v>
+        <v>11098</v>
       </c>
       <c r="B387" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C387" t="n">
-        <v>7158</v>
+        <v>11098</v>
       </c>
       <c r="D387" t="s">
         <v>142</v>
@@ -14385,13 +14385,13 @@
     </row>
     <row r="388" spans="1:27">
       <c r="A388" t="n">
-        <v>7159</v>
+        <v>11099</v>
       </c>
       <c r="B388" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C388" t="n">
-        <v>7159</v>
+        <v>11099</v>
       </c>
       <c r="D388" t="s">
         <v>142</v>
@@ -14420,13 +14420,13 @@
     </row>
     <row r="389" spans="1:27">
       <c r="A389" t="n">
-        <v>7160</v>
+        <v>11100</v>
       </c>
       <c r="B389" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C389" t="n">
-        <v>7160</v>
+        <v>11100</v>
       </c>
       <c r="D389" t="s">
         <v>142</v>
@@ -14455,13 +14455,13 @@
     </row>
     <row r="390" spans="1:27">
       <c r="A390" t="n">
-        <v>7161</v>
+        <v>11101</v>
       </c>
       <c r="B390" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C390" t="n">
-        <v>7161</v>
+        <v>11101</v>
       </c>
       <c r="D390" t="s">
         <v>142</v>
@@ -14490,13 +14490,13 @@
     </row>
     <row r="391" spans="1:27">
       <c r="A391" t="n">
-        <v>7162</v>
+        <v>11102</v>
       </c>
       <c r="B391" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C391" t="n">
-        <v>7162</v>
+        <v>11102</v>
       </c>
       <c r="D391" t="s">
         <v>142</v>
@@ -14525,13 +14525,13 @@
     </row>
     <row r="392" spans="1:27">
       <c r="A392" t="n">
-        <v>7163</v>
+        <v>11103</v>
       </c>
       <c r="B392" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C392" t="n">
-        <v>7163</v>
+        <v>11103</v>
       </c>
       <c r="D392" t="s">
         <v>142</v>
@@ -14560,13 +14560,13 @@
     </row>
     <row r="393" spans="1:27">
       <c r="A393" t="n">
-        <v>7164</v>
+        <v>11104</v>
       </c>
       <c r="B393" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C393" t="n">
-        <v>7164</v>
+        <v>11104</v>
       </c>
       <c r="D393" t="s">
         <v>142</v>
@@ -14595,13 +14595,13 @@
     </row>
     <row r="394" spans="1:27">
       <c r="A394" t="n">
-        <v>7165</v>
+        <v>11105</v>
       </c>
       <c r="B394" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C394" t="n">
-        <v>7165</v>
+        <v>11105</v>
       </c>
       <c r="D394" t="s">
         <v>142</v>
@@ -14630,13 +14630,13 @@
     </row>
     <row r="395" spans="1:27">
       <c r="A395" t="n">
-        <v>7166</v>
+        <v>11106</v>
       </c>
       <c r="B395" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C395" t="n">
-        <v>7166</v>
+        <v>11106</v>
       </c>
       <c r="D395" t="s">
         <v>142</v>
